--- a/data/sklearn/Varied.xlsx
+++ b/data/sklearn/Varied.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,16 +446,16 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Label</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.291611721944671</v>
+        <v>2.312507371272289</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5633651381388793</v>
+        <v>0.1045052517995445</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -463,10 +463,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.075674130477828</v>
+        <v>1.287683077398293</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6200760821348452</v>
+        <v>0.2802913864927357</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.2754391726259451</v>
+        <v>-5.124603580942503</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6868193101461606</v>
+        <v>0.4871744542457613</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -485,10 +485,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.347617719330375</v>
+        <v>2.578307810804956</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4271865597323179</v>
+        <v>-0.3176056185080623</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.294032952950635</v>
+        <v>-9.958776475873483</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.615424411375887</v>
+        <v>-6.649058808893305</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.3739461970858476</v>
+        <v>-5.592110841248538</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2021680745223887</v>
+        <v>-1.015092328522698</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.291570849204924</v>
+        <v>2.312313392186176</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6240944377486117</v>
+        <v>0.2927470282330134</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2412760694607956</v>
+        <v>-2.672310168256253</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.528874609554481</v>
+        <v>-6.380781576165017</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.7879269227536145</v>
+        <v>-7.556833620538484</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.187754541963889</v>
+        <v>-5.323416384848579</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -551,10 +551,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.9923256171720101</v>
+        <v>-8.526895138096267</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.6837136345210943</v>
+        <v>-3.761047702484198</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1099761048541488</v>
+        <v>-3.295450366309025</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.285811966462759</v>
+        <v>-5.627363637637247</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.210692424065085</v>
+        <v>-9.563248313842774</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.8483236924267868</v>
+        <v>-4.271287239546434</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.375520337968874</v>
+        <v>2.710731634045692</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8160911036038226</v>
+        <v>0.8878764580493919</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.073069470178752</v>
+        <v>-8.910099662978658</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.899902993171289</v>
+        <v>-4.431166890089699</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.250140406919411</v>
+        <v>-9.750465606111428</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6594542169016956</v>
+        <v>0.4023512503275644</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.200387588150899</v>
+        <v>1.879564186788245</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5967664718687533</v>
+        <v>0.2080389074972793</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.04738338201955856</v>
+        <v>-4.042267184651112</v>
       </c>
       <c r="B18" t="n">
-        <v>1.231089346500088</v>
+        <v>2.174240815313309</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.38477871391003</v>
+        <v>2.754671221043317</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7492609910625178</v>
+        <v>0.6807240755113291</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.277394650455573</v>
+        <v>2.245034171488971</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5741588165102086</v>
+        <v>0.1379622684937549</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.2211140322802293</v>
+        <v>-4.866780368151169</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2005324136789371</v>
+        <v>-1.020162363988159</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -672,10 +672,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.058401262943527</v>
+        <v>1.205707289144969</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7962222172407952</v>
+        <v>0.826289143709089</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.578005232358958</v>
+        <v>-1.074217755306107</v>
       </c>
       <c r="B23" t="n">
-        <v>0.791543384657271</v>
+        <v>0.8117862305713215</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-1.049568931048879</v>
+        <v>-8.798567792794174</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.776570141212405</v>
+        <v>-7.148560015790689</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.03639765505677621</v>
+        <v>-3.990129713815912</v>
       </c>
       <c r="B25" t="n">
-        <v>0.07865058530545116</v>
+        <v>-1.397957794454598</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.0448735450564593</v>
+        <v>-4.030355678757327</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1854834413766361</v>
+        <v>-1.066809456872287</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.04309599941316978</v>
+        <v>-3.612858541361741</v>
       </c>
       <c r="B27" t="n">
-        <v>1.094472466022111</v>
+        <v>1.750771346091042</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.115662809141529</v>
+        <v>1.477466473128975</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6644839662795214</v>
+        <v>0.4179418954359653</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.3056352939965524</v>
+        <v>-2.366865912853125</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.6540266395052252</v>
+        <v>-3.669027331515467</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.6460845381196031</v>
+        <v>-6.883659854514171</v>
       </c>
       <c r="B30" t="n">
-        <v>0.662800965519853</v>
+        <v>0.412725121081991</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9963939668085849</v>
+        <v>0.911425116944836</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6715032586125175</v>
+        <v>0.4396994995341562</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-1.209641407732742</v>
+        <v>-9.558260265845536</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.8276259019727463</v>
+        <v>-4.207130582572708</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.174902604991606</v>
+        <v>1.758614287823464</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8051894386405227</v>
+        <v>0.854084716798267</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.195176301225489</v>
+        <v>1.854831793473913</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7249632298620028</v>
+        <v>0.6054086386277436</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
@@ -815,10 +815,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.496875675325129</v>
+        <v>-1.45925280378802</v>
       </c>
       <c r="B35" t="n">
-        <v>1.730791220999281</v>
+        <v>3.723159856819719</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -826,10 +826,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.1451147402454855</v>
+        <v>-3.12868492747087</v>
       </c>
       <c r="B36" t="n">
-        <v>0.385499861464718</v>
+        <v>-0.4468213049389566</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -837,10 +837,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-1.240733933910596</v>
+        <v>-9.705823161071548</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.023899951145514</v>
+        <v>-4.815518558747405</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.08788844068389956</v>
+        <v>-3.400276833450932</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.5801248050963119</v>
+        <v>-3.439954829770421</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.1901425161999931</v>
+        <v>-4.719791778153819</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.8433927844138195</v>
+        <v>-4.256002971659995</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.4773813316647894</v>
+        <v>-6.083006558092273</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.07613487061083953</v>
+        <v>-1.877744147582199</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.772574491551474</v>
+        <v>-7.483972085133248</v>
       </c>
       <c r="B41" t="n">
-        <v>-1.082663341532873</v>
+        <v>-4.997666633348237</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.8596203083198088</v>
+        <v>-7.897085277228804</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7703342799356344</v>
+        <v>0.7460446597805972</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -903,10 +903,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-0.3466985015141426</v>
+        <v>-5.462795235826247</v>
       </c>
       <c r="B43" t="n">
-        <v>1.629478453481893</v>
+        <v>3.4091220619592</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.151652467360233</v>
+        <v>1.648270805159384</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8654244168141925</v>
+        <v>1.0407942518614</v>
       </c>
       <c r="C44" t="n">
         <v>2</v>
@@ -925,10 +925,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-1.282932060207277</v>
+        <v>-9.906092436518392</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.1117739397394</v>
+        <v>-5.087900355038639</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.8816023356228381</v>
+        <v>-8.001410399388948</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.302623321201195</v>
+        <v>-5.679473563168303</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.410813627676809</v>
+        <v>2.878231051158428</v>
       </c>
       <c r="B47" t="n">
-        <v>0.437815342937527</v>
+        <v>-0.284659725096933</v>
       </c>
       <c r="C47" t="n">
         <v>2</v>
@@ -958,10 +958,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-1.237173632974416</v>
+        <v>-9.6889262286379</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.480319651727907</v>
+        <v>-6.230276439852502</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -969,10 +969,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.157400249381165</v>
+        <v>1.675549365649618</v>
       </c>
       <c r="B49" t="n">
-        <v>0.747671139800867</v>
+        <v>0.6757960353777956</v>
       </c>
       <c r="C49" t="n">
         <v>2</v>
@@ -980,10 +980,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.259497778149907</v>
+        <v>2.160096901425812</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4945959941885017</v>
+        <v>-0.1086575197821888</v>
       </c>
       <c r="C50" t="n">
         <v>2</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.20585672088542</v>
+        <v>1.905520297786268</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6664016745929651</v>
+        <v>0.4238861895727938</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.139239345780319</v>
+        <v>1.589359022030316</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5615647548382156</v>
+        <v>0.09892462839443289</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.07310226616320231</v>
+        <v>-4.164327160881716</v>
       </c>
       <c r="B53" t="n">
-        <v>1.275302644326743</v>
+        <v>2.311288167717447</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.7376873575934995</v>
+        <v>-7.318400254027321</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.738429097538521</v>
+        <v>-7.030334746236488</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.01199918597595316</v>
+        <v>-3.76044178361264</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7888148791699791</v>
+        <v>0.8033287195636697</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.103432877309186</v>
+        <v>1.4194240953796</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9316156880105498</v>
+        <v>1.245966426651227</v>
       </c>
       <c r="C56" t="n">
         <v>2</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.9741157325350946</v>
+        <v>-8.440472333999097</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.143774626551561</v>
+        <v>-5.187092444710736</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.309806392833695</v>
+        <v>2.398857972015084</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5375834030815846</v>
+        <v>0.02458996152103698</v>
       </c>
       <c r="C58" t="n">
         <v>2</v>
@@ -1079,10 +1079,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.169831544462699</v>
+        <v>1.734547398911594</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6662607939125947</v>
+        <v>0.4234495036615699</v>
       </c>
       <c r="C59" t="n">
         <v>2</v>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-1.276797488397281</v>
+        <v>-9.876978199480311</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.673317806888207</v>
+        <v>-6.82851017232148</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.153323399451117</v>
+        <v>1.656200928805382</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5870991409428754</v>
+        <v>0.1780732145195552</v>
       </c>
       <c r="C61" t="n">
         <v>2</v>
@@ -1112,10 +1112,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.620936316326775</v>
+        <v>-11.51023635028089</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.8133382080434373</v>
+        <v>-4.162843213812081</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.325096303383422</v>
+        <v>2.471422788896105</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5553810930773195</v>
+        <v>0.07975721691076337</v>
       </c>
       <c r="C63" t="n">
         <v>2</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.341425750834097</v>
+        <v>2.548921173217762</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6274781526490208</v>
+        <v>0.3032354828651385</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.1837171498085088</v>
+        <v>-2.945480665287856</v>
       </c>
       <c r="B65" t="n">
-        <v>1.654715060284107</v>
+        <v>3.487347625667834</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -1156,10 +1156,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-1.296957906045459</v>
+        <v>-9.972658093102126</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.1476039424516879</v>
+        <v>-2.099275848586972</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.9525792255085977</v>
+        <v>-8.338261619060512</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.659141109631921</v>
+        <v>-6.784566858424688</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.174076948061521</v>
+        <v>1.754695779357161</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4953873097112655</v>
+        <v>-0.1062046899178286</v>
       </c>
       <c r="C68" t="n">
         <v>2</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1.213654243719877</v>
+        <v>1.942526780902549</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8141171994646569</v>
+        <v>0.8817579744829126</v>
       </c>
       <c r="C69" t="n">
         <v>2</v>
@@ -1200,10 +1200,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.04050344607482535</v>
+        <v>-3.625162613229225</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0892674599922384</v>
+        <v>-1.365048813714565</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -1211,10 +1211,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.1659341066931832</v>
+        <v>-3.029877710192345</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1988023568218675</v>
+        <v>-1.025524997481359</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.39925928124882</v>
+        <v>-1.922533196285775</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.6319550574468507</v>
+        <v>-3.600612351562369</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -1233,10 +1233,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-1.252912792478443</v>
+        <v>-9.76362314877726</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.7305142806018095</v>
+        <v>-3.906115022757656</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -1244,10 +1244,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.192480884920917</v>
+        <v>1.84203954135947</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7551821342798801</v>
+        <v>0.6990777618689218</v>
       </c>
       <c r="C74" t="n">
         <v>2</v>
@@ -1255,10 +1255,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.9668313246544296</v>
+        <v>-8.405901057585934</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.017464368483442</v>
+        <v>-4.79557027150421</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1266,10 +1266,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.092291930355941</v>
+        <v>1.3665499616223</v>
       </c>
       <c r="B76" t="n">
-        <v>0.2633543934998729</v>
+        <v>-0.8254339354280296</v>
       </c>
       <c r="C76" t="n">
         <v>2</v>
@@ -1277,10 +1277,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.2724805333906997</v>
+        <v>-2.524216024501802</v>
       </c>
       <c r="B77" t="n">
-        <v>1.495866751277795</v>
+        <v>2.994967702583577</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -1288,10 +1288,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.048110587078454</v>
+        <v>1.156868480879716</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7058908402488209</v>
+        <v>0.5462902143302696</v>
       </c>
       <c r="C78" t="n">
         <v>2</v>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.27390449958671</v>
+        <v>2.228470166234489</v>
       </c>
       <c r="B79" t="n">
-        <v>0.977651555166654</v>
+        <v>1.38866317218938</v>
       </c>
       <c r="C79" t="n">
         <v>2</v>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-0.03948010566633758</v>
+        <v>-4.004758802933219</v>
       </c>
       <c r="B80" t="n">
-        <v>0.2892827055442803</v>
+        <v>-0.7450643024744764</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.175959011010992</v>
+        <v>1.763627914888152</v>
       </c>
       <c r="B81" t="n">
-        <v>0.588615886965034</v>
+        <v>0.1827746513456727</v>
       </c>
       <c r="C81" t="n">
         <v>2</v>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-1.100927244311626</v>
+        <v>-9.042310657417801</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.319654153368487</v>
+        <v>-5.732263799873051</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1343,10 +1343,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-0.9571461443841451</v>
+        <v>-8.359935887908376</v>
       </c>
       <c r="B83" t="n">
-        <v>0.521488426148782</v>
+        <v>-0.02529941755885806</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -1354,10 +1354,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.211086995658722</v>
+        <v>1.930342806062413</v>
       </c>
       <c r="B84" t="n">
-        <v>0.845557122222086</v>
+        <v>0.9792118715115727</v>
       </c>
       <c r="C84" t="n">
         <v>2</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.6913924389512274</v>
+        <v>-0.5360902197486404</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1696487200368405</v>
+        <v>-1.115892125262792</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.260158141475429</v>
+        <v>2.163230938321294</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6962663241431721</v>
+        <v>0.5164572338631358</v>
       </c>
       <c r="C86" t="n">
         <v>2</v>
@@ -1387,10 +1387,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.217611651108994</v>
+        <v>1.961308352029532</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5331172553964202</v>
+        <v>0.01074630484341499</v>
       </c>
       <c r="C87" t="n">
         <v>2</v>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.16493725924229</v>
+        <v>1.711319472912457</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5640421788498884</v>
+        <v>0.106603865598438</v>
       </c>
       <c r="C88" t="n">
         <v>2</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.376675192335435</v>
+        <v>2.716212489892508</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5996705879225435</v>
+        <v>0.2170407561674854</v>
       </c>
       <c r="C89" t="n">
         <v>2</v>
@@ -1420,10 +1420,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.143069635709434</v>
+        <v>1.607537302825587</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6596082655444678</v>
+        <v>0.4028287527911029</v>
       </c>
       <c r="C90" t="n">
         <v>2</v>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.05852340429520804</v>
+        <v>-3.539641186258608</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.4612621696266912</v>
+        <v>-3.071517950106827</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
@@ -1442,10 +1442,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-0.9549912933104798</v>
+        <v>-8.349709119539925</v>
       </c>
       <c r="B92" t="n">
-        <v>-1.01537155779478</v>
+        <v>-4.789083214938362</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.3249021255955262</v>
+        <v>-2.275426914416212</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.004882028177891552</v>
+        <v>-1.656882689905143</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-0.9887101863276564</v>
+        <v>-8.509736563079541</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.260279824002221</v>
+        <v>-5.548222006105012</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-1.13706133048213</v>
+        <v>-9.213800434130228</v>
       </c>
       <c r="B95" t="n">
-        <v>-1.513454072488283</v>
+        <v>-6.332982749082316</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1486,10 +1486,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-0.7978678764505971</v>
+        <v>-7.604012672521698</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.866297248997425</v>
+        <v>-7.426685900202874</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.4631403450617956</v>
+        <v>-1.619358257316871</v>
       </c>
       <c r="B97" t="n">
-        <v>0.3834931979280458</v>
+        <v>-0.4530413323602335</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-1.272913698300559</v>
+        <v>-9.858546010733594</v>
       </c>
       <c r="B98" t="n">
-        <v>-1.364988122225931</v>
+        <v>-5.872784880889062</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -1519,10 +1519,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-1.37831314630875</v>
+        <v>-10.35876421797561</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.143508975487156</v>
+        <v>-5.186269009752711</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-1.166731512505108</v>
+        <v>-9.354612986193356</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.030300530935125</v>
+        <v>-4.835358348067277</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -1541,10 +1541,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9637211159454174</v>
+        <v>0.7563621143094776</v>
       </c>
       <c r="B101" t="n">
-        <v>1.237495779654783</v>
+        <v>2.19409874822859</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-1.483325795738555</v>
+        <v>-10.85714670695628</v>
       </c>
       <c r="B102" t="n">
-        <v>-1.404499211036289</v>
+        <v>-5.995256860547631</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -1563,10 +1563,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.337743862246059</v>
+        <v>2.531447194524533</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7167817342995964</v>
+        <v>0.5800485691316828</v>
       </c>
       <c r="C103" t="n">
         <v>2</v>
@@ -1574,10 +1574,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.122096868867932</v>
+        <v>1.50800205829996</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4538379056124389</v>
+        <v>-0.234994807498268</v>
       </c>
       <c r="C104" t="n">
         <v>2</v>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1.147122217674776</v>
+        <v>1.626770565652989</v>
       </c>
       <c r="B105" t="n">
-        <v>0.3196742616890885</v>
+        <v>-0.6508600130451385</v>
       </c>
       <c r="C105" t="n">
         <v>2</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1.125919360514947</v>
+        <v>1.526143329008693</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6555370943477185</v>
+        <v>0.3902093993131969</v>
       </c>
       <c r="C106" t="n">
         <v>2</v>
@@ -1607,10 +1607,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1.085410471699512</v>
+        <v>-8.968669169488845</v>
       </c>
       <c r="B107" t="n">
-        <v>-1.312415779624567</v>
+        <v>-5.709827112132518</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.280429517918264</v>
+        <v>2.259437434410102</v>
       </c>
       <c r="B108" t="n">
-        <v>0.7591419946878304</v>
+        <v>0.7113520868226322</v>
       </c>
       <c r="C108" t="n">
         <v>2</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.1277768100513536</v>
+        <v>-3.210969498432967</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.3346112379628441</v>
+        <v>-2.67893979563169</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
@@ -1640,10 +1640,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-0.2149753276707211</v>
+        <v>-4.837646517143545</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7437186730477939</v>
+        <v>0.6635446284346235</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
@@ -1651,10 +1651,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-0.3252205612382354</v>
+        <v>-5.36086247447791</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.4750985560174064</v>
+        <v>-3.114406407084696</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-0.6715962324375113</v>
+        <v>-7.004736522718531</v>
       </c>
       <c r="B112" t="n">
-        <v>0.7427324329173057</v>
+        <v>0.6604875934392233</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
@@ -1673,10 +1673,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.304493882079182</v>
+        <v>2.373645177680806</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4340134822859008</v>
+        <v>-0.2964443003746616</v>
       </c>
       <c r="C113" t="n">
         <v>2</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.056144867575493</v>
+        <v>1.194998598851456</v>
       </c>
       <c r="B114" t="n">
-        <v>0.7738014919239549</v>
+        <v>0.7567919291900448</v>
       </c>
       <c r="C114" t="n">
         <v>2</v>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.308265847559173</v>
+        <v>2.391546654831175</v>
       </c>
       <c r="B115" t="n">
-        <v>0.614229365645692</v>
+        <v>0.2621683996429963</v>
       </c>
       <c r="C115" t="n">
         <v>2</v>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-0.3704444216484985</v>
+        <v>-5.575491666627256</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5286024712902516</v>
+        <v>-0.003248109480812444</v>
       </c>
       <c r="C116" t="n">
         <v>1</v>
@@ -1717,10 +1717,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-1.278957191628634</v>
+        <v>-9.887227995840515</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.6652737521991439</v>
+        <v>-3.703889852355595</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1.397515403645949</v>
+        <v>2.815118635392245</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9058143983785721</v>
+        <v>1.16599052332598</v>
       </c>
       <c r="C118" t="n">
         <v>2</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.04858315123744739</v>
+        <v>-3.586816913058416</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.766046689592127</v>
+        <v>-7.115940617247594</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-0.9523051587639246</v>
+        <v>-8.336960917982131</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.393265429259502</v>
+        <v>-5.960435661368358</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -1761,10 +1761,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-1.085230143752768</v>
+        <v>-8.967813346010251</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.244834165714187</v>
+        <v>-5.500345311115798</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -1772,10 +1772,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-1.295619383005851</v>
+        <v>-9.966305558929717</v>
       </c>
       <c r="B122" t="n">
-        <v>-1.373373580708483</v>
+        <v>-5.898777171449115</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-0.9098946459961559</v>
+        <v>-8.13568367160358</v>
       </c>
       <c r="B123" t="n">
-        <v>1.90456330689218</v>
+        <v>4.261798806276439</v>
       </c>
       <c r="C123" t="n">
         <v>1</v>
@@ -1794,10 +1794,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-0.6859631206446452</v>
+        <v>-7.072920741881239</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9641138799910314</v>
+        <v>1.346700626264842</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -1805,10 +1805,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.04017206566923823</v>
+        <v>-3.626735320824288</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9645329956673292</v>
+        <v>1.347999753373904</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -1816,10 +1816,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-1.209040517290861</v>
+        <v>-9.55540848298266</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.5951622137121629</v>
+        <v>-3.486566078854382</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-1.033923636076691</v>
+        <v>-8.724316346978705</v>
       </c>
       <c r="B127" t="n">
-        <v>-1.52836000197474</v>
+        <v>-6.379186454113568</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-0.7460041431659835</v>
+        <v>-7.357871120788985</v>
       </c>
       <c r="B128" t="n">
-        <v>0.5795555734552209</v>
+        <v>0.1546905219206391</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -1849,10 +1849,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.232511362234281</v>
+        <v>2.032021310478195</v>
       </c>
       <c r="B129" t="n">
-        <v>0.6691543123284066</v>
+        <v>0.4324185029787975</v>
       </c>
       <c r="C129" t="n">
         <v>2</v>
@@ -1860,10 +1860,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.311450011611327</v>
+        <v>2.406658468638862</v>
       </c>
       <c r="B130" t="n">
-        <v>0.6796166795093679</v>
+        <v>0.4648485589237822</v>
       </c>
       <c r="C130" t="n">
         <v>2</v>
@@ -1871,10 +1871,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-0.7170542878172502</v>
+        <v>-7.220477187365979</v>
       </c>
       <c r="B131" t="n">
-        <v>1.348420117557329</v>
+        <v>2.53792939588413</v>
       </c>
       <c r="C131" t="n">
         <v>1</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-0.6615412964124834</v>
+        <v>-6.957016518796102</v>
       </c>
       <c r="B132" t="n">
-        <v>-1.460323508515307</v>
+        <v>-6.168294669202298</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.3413057309266401</v>
+        <v>-2.197576582122273</v>
       </c>
       <c r="B133" t="n">
-        <v>0.6515481869564645</v>
+        <v>0.3778450378240368</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.23175537345199</v>
+        <v>2.028433442035627</v>
       </c>
       <c r="B134" t="n">
-        <v>0.7923395653483295</v>
+        <v>0.8142541409310657</v>
       </c>
       <c r="C134" t="n">
         <v>2</v>
@@ -1915,10 +1915,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-0.5369842576533338</v>
+        <v>-6.365877762332842</v>
       </c>
       <c r="B135" t="n">
-        <v>-1.119774051548638</v>
+        <v>-5.112698191804665</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -1926,10 +1926,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.142711075410786</v>
+        <v>1.605835601410942</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6192934174693004</v>
+        <v>0.2778653715717558</v>
       </c>
       <c r="C136" t="n">
         <v>2</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-1.229734840187202</v>
+        <v>-9.653622252550889</v>
       </c>
       <c r="B137" t="n">
-        <v>-1.446379449004579</v>
+        <v>-6.12507245933224</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-1.101871360472078</v>
+        <v>-9.046791364880068</v>
       </c>
       <c r="B138" t="n">
-        <v>-1.507982009843043</v>
+        <v>-6.316021071610078</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -1959,10 +1959,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.050545382501456</v>
+        <v>1.168423845015973</v>
       </c>
       <c r="B139" t="n">
-        <v>0.7796655232218712</v>
+        <v>0.7749685865148448</v>
       </c>
       <c r="C139" t="n">
         <v>2</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-1.516211583739023</v>
+        <v>-11.01322029394563</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.787607013451297</v>
+        <v>-4.083084583119697</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -1981,10 +1981,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.061020742723182</v>
+        <v>1.218139151968237</v>
       </c>
       <c r="B141" t="n">
-        <v>0.6120565496403296</v>
+        <v>0.25543335169512</v>
       </c>
       <c r="C141" t="n">
         <v>2</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.11713513366587</v>
+        <v>-3.261474129948519</v>
       </c>
       <c r="B142" t="n">
-        <v>1.681205763298368</v>
+        <v>3.569460494191295</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
@@ -2003,10 +2003,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1.158355257248346</v>
+        <v>1.680081764369448</v>
       </c>
       <c r="B143" t="n">
-        <v>0.51874269447264</v>
+        <v>-0.03381032434764264</v>
       </c>
       <c r="C143" t="n">
         <v>2</v>
@@ -2014,10 +2014,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-1.208700595859445</v>
+        <v>-9.55379524029269</v>
       </c>
       <c r="B144" t="n">
-        <v>-1.051319767148572</v>
+        <v>-4.90051138604929</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -2025,10 +2025,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.09094294880511938</v>
+        <v>-3.385780357375611</v>
       </c>
       <c r="B145" t="n">
-        <v>0.9909194450282327</v>
+        <v>1.429789468279035</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
@@ -2036,10 +2036,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-0.3253944052793293</v>
+        <v>-5.361687525806158</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1603262556503066</v>
+        <v>-1.144788840162129</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -2047,10 +2047,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.3712291114233591</v>
+        <v>-2.055562368295211</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.1676193523640962</v>
+        <v>-2.161317339962117</v>
       </c>
       <c r="C147" t="n">
         <v>1</v>
@@ -2058,10 +2058,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1.202939476543358</v>
+        <v>1.891675265744357</v>
       </c>
       <c r="B148" t="n">
-        <v>0.6462222206373164</v>
+        <v>0.3613362131284759</v>
       </c>
       <c r="C148" t="n">
         <v>2</v>
@@ -2069,10 +2069,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-1.171635679445475</v>
+        <v>-9.377887810125408</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.97407892852591</v>
+        <v>-7.760775292832284</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-1.525599826622574</v>
+        <v>-11.05777622012085</v>
       </c>
       <c r="B150" t="n">
-        <v>-1.004151984273296</v>
+        <v>-4.754306056893029</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.04835473548534523</v>
+        <v>-3.587900957806103</v>
       </c>
       <c r="B151" t="n">
-        <v>1.829445401636561</v>
+        <v>4.028956866419577</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
@@ -2102,10 +2102,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1.160472421887112</v>
+        <v>1.690129675625655</v>
       </c>
       <c r="B152" t="n">
-        <v>0.7095308750570238</v>
+        <v>0.5575731802623509</v>
       </c>
       <c r="C152" t="n">
         <v>2</v>
@@ -2113,10 +2113,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-0.1792221853450036</v>
+        <v>-4.66796467254746</v>
       </c>
       <c r="B153" t="n">
-        <v>0.2219594106129104</v>
+        <v>-0.9537453956976305</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-1.078866488713454</v>
+        <v>-8.937611896425572</v>
       </c>
       <c r="B154" t="n">
-        <v>-1.085114451230684</v>
+        <v>-5.005264304434753</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-0.8267241678662101</v>
+        <v>-7.740962558240732</v>
       </c>
       <c r="B155" t="n">
-        <v>-1.588020051013864</v>
+        <v>-6.564113889229792</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1.123260141815269</v>
+        <v>1.513522868126262</v>
       </c>
       <c r="B156" t="n">
-        <v>0.5079048496361863</v>
+        <v>-0.06740424322757299</v>
       </c>
       <c r="C156" t="n">
         <v>2</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-1.270860516765616</v>
+        <v>-9.848801758690911</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.9177050576367075</v>
+        <v>-4.48634770496306</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-1.244983218642161</v>
+        <v>-9.725989961094248</v>
       </c>
       <c r="B158" t="n">
-        <v>-1.575782862288476</v>
+        <v>-6.526182443304647</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-1.191759866540462</v>
+        <v>-9.473395756144962</v>
       </c>
       <c r="B159" t="n">
-        <v>-1.603498239126687</v>
+        <v>-6.612091416470406</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -2190,10 +2190,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1.005573063599592</v>
+        <v>0.9549884507921039</v>
       </c>
       <c r="B160" t="n">
-        <v>0.5330709412358875</v>
+        <v>0.01060274547571766</v>
       </c>
       <c r="C160" t="n">
         <v>2</v>
@@ -2201,10 +2201,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1.177676537002631</v>
+        <v>1.771779169839339</v>
       </c>
       <c r="B161" t="n">
-        <v>0.5095292596606189</v>
+        <v>-0.06236908177139644</v>
       </c>
       <c r="C161" t="n">
         <v>2</v>
@@ -2212,10 +2212,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.1969213093813954</v>
+        <v>-2.882814672680631</v>
       </c>
       <c r="B162" t="n">
-        <v>1.174419916778917</v>
+        <v>1.998583361847876</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-1.05054429060664</v>
+        <v>-8.803196779175222</v>
       </c>
       <c r="B163" t="n">
-        <v>-1.272548021252177</v>
+        <v>-5.586249568728141</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -2234,10 +2234,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-0.3436666364396434</v>
+        <v>-5.448406222023748</v>
       </c>
       <c r="B164" t="n">
-        <v>0.3816863509996452</v>
+        <v>-0.4586419909835213</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-0.9949872509956719</v>
+        <v>-8.539527060983598</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.8187273323027783</v>
+        <v>-4.179547808307955</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1.353201763636682</v>
+        <v>2.604809283866219</v>
       </c>
       <c r="B166" t="n">
-        <v>0.5110821205083955</v>
+        <v>-0.05755570031602042</v>
       </c>
       <c r="C166" t="n">
         <v>2</v>
@@ -2267,10 +2267,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1.180150186856613</v>
+        <v>1.783518934313317</v>
       </c>
       <c r="B167" t="n">
-        <v>0.5900612881585808</v>
+        <v>0.1872549415858175</v>
       </c>
       <c r="C167" t="n">
         <v>2</v>
@@ -2278,10 +2278,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-1.134129211812379</v>
+        <v>-9.199884809597831</v>
       </c>
       <c r="B168" t="n">
-        <v>-1.499011113432335</v>
+        <v>-6.288214107139804</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.3506403327650944</v>
+        <v>-2.153275232492939</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.4722633542750547</v>
+        <v>-3.105618171159742</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
@@ -2300,10 +2300,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1.103119761710894</v>
+        <v>1.417938071247627</v>
       </c>
       <c r="B170" t="n">
-        <v>0.1523204888350778</v>
+        <v>-1.169604205672606</v>
       </c>
       <c r="C170" t="n">
         <v>2</v>
@@ -2311,10 +2311,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-1.199795734911068</v>
+        <v>-9.511533410050559</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.6782918335918736</v>
+        <v>-3.744241820563215</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -2322,10 +2322,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-0.8232262735527085</v>
+        <v>-7.72436180315437</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.2987852518775002</v>
+        <v>-2.567890478308341</v>
       </c>
       <c r="C172" t="n">
         <v>1</v>
@@ -2333,10 +2333,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1.293427411398552</v>
+        <v>2.321124502962184</v>
       </c>
       <c r="B173" t="n">
-        <v>0.7211444621452345</v>
+        <v>0.5935716567522599</v>
       </c>
       <c r="C173" t="n">
         <v>2</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-0.4081580389295052</v>
+        <v>-5.754477784500004</v>
       </c>
       <c r="B174" t="n">
-        <v>1.170392842839432</v>
+        <v>1.986100696033037</v>
       </c>
       <c r="C174" t="n">
         <v>1</v>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1.100704885480575</v>
+        <v>1.406477242168636</v>
       </c>
       <c r="B175" t="n">
-        <v>0.7337972209500847</v>
+        <v>0.6327912395486258</v>
       </c>
       <c r="C175" t="n">
         <v>2</v>
@@ -2366,10 +2366,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1.081015435509636</v>
+        <v>1.313032527303729</v>
       </c>
       <c r="B176" t="n">
-        <v>0.595342861322254</v>
+        <v>0.2036261614266906</v>
       </c>
       <c r="C176" t="n">
         <v>2</v>
@@ -2377,10 +2377,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-1.015806728339119</v>
+        <v>-8.638334804565384</v>
       </c>
       <c r="B177" t="n">
-        <v>-1.438098365964717</v>
+        <v>-6.099403699899242</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-0.6425935945931986</v>
+        <v>-6.867092087363954</v>
       </c>
       <c r="B178" t="n">
-        <v>-1.330806508205699</v>
+        <v>-5.766832601085387</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-1.106206107879414</v>
+        <v>-9.067363764621442</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.05411481915204</v>
+        <v>-4.909175170379718</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1.256330026191172</v>
+        <v>2.145062978234272</v>
       </c>
       <c r="B180" t="n">
-        <v>0.8047785728231097</v>
+        <v>0.8528111616635522</v>
       </c>
       <c r="C180" t="n">
         <v>2</v>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-0.1734861342102245</v>
+        <v>-4.64074178600004</v>
       </c>
       <c r="B181" t="n">
-        <v>0.8355916430647472</v>
+        <v>0.9483220125531544</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
@@ -2432,10 +2432,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-0.777584268743659</v>
+        <v>-7.507748127732276</v>
       </c>
       <c r="B182" t="n">
-        <v>-1.090926839051319</v>
+        <v>-5.023280883181878</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -2443,10 +2443,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-1.454729707702485</v>
+        <v>-10.72143172778081</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.9833344683366774</v>
+        <v>-4.689778288484299</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -2454,10 +2454,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1.238906936525414</v>
+        <v>2.062374246538587</v>
       </c>
       <c r="B184" t="n">
-        <v>0.8695117372040012</v>
+        <v>1.053463662771369</v>
       </c>
       <c r="C184" t="n">
         <v>2</v>
@@ -2465,10 +2465,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-0.3761968306031936</v>
+        <v>-5.60279218621268</v>
       </c>
       <c r="B185" t="n">
-        <v>1.306730081276617</v>
+        <v>2.408703362659809</v>
       </c>
       <c r="C185" t="n">
         <v>1</v>
@@ -2476,10 +2476,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.1799341620864558</v>
+        <v>-2.963434453207095</v>
       </c>
       <c r="B186" t="n">
-        <v>0.07346005981176737</v>
+        <v>-1.41404679508252</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -2487,10 +2487,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-0.4739984458409116</v>
+        <v>-6.066951625034245</v>
       </c>
       <c r="B187" t="n">
-        <v>0.9598677120800914</v>
+        <v>1.333538837873953</v>
       </c>
       <c r="C187" t="n">
         <v>1</v>
@@ -2498,10 +2498,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.9230777806001004</v>
+        <v>0.5634717650052714</v>
       </c>
       <c r="B188" t="n">
-        <v>0.3473507208701429</v>
+        <v>-0.565071672407086</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
@@ -2509,10 +2509,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-0.6126395638779452</v>
+        <v>-6.724932409801962</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.1221105267758431</v>
+        <v>-2.02025425793769</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1.074257151518688</v>
+        <v>1.280958197068888</v>
       </c>
       <c r="B190" t="n">
-        <v>0.4125015859984</v>
+        <v>-0.3631244300259964</v>
       </c>
       <c r="C190" t="n">
         <v>2</v>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-1.40336417526506</v>
+        <v>-10.47765460147287</v>
       </c>
       <c r="B191" t="n">
-        <v>-1.234626661559345</v>
+        <v>-5.468705250594639</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -2542,10 +2542,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-0.5197745322877861</v>
+        <v>-6.284201642275622</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.4740088737337495</v>
+        <v>-3.11102873386696</v>
       </c>
       <c r="C192" t="n">
         <v>1</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-0.7364616082392877</v>
+        <v>-7.312582935662958</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.7564668857171163</v>
+        <v>-3.986559956609631</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -2564,10 +2564,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-1.116052113409005</v>
+        <v>-9.11409219942429</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.119822529638675</v>
+        <v>-5.112848458674947</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -2575,10 +2575,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-0.2222541896789125</v>
+        <v>-4.872191473244421</v>
       </c>
       <c r="B195" t="n">
-        <v>1.602958861851544</v>
+        <v>3.326919647788975</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
@@ -2586,10 +2586,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-1.507916948615876</v>
+        <v>-10.97385455162499</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.900540807126252</v>
+        <v>-4.433143913251301</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -2597,10 +2597,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>-0.1163916048790548</v>
+        <v>-4.369775252065773</v>
       </c>
       <c r="B197" t="n">
-        <v>0.073146720134522</v>
+        <v>-1.415018049779195</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
@@ -2608,10 +2608,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-1.164295271585248</v>
+        <v>-9.34305076183287</v>
       </c>
       <c r="B198" t="n">
-        <v>-1.165195435121236</v>
+        <v>-5.253490231013391</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -2619,10 +2619,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>-1.458745539574695</v>
+        <v>-10.74049057730672</v>
       </c>
       <c r="B199" t="n">
-        <v>-1.032502269558177</v>
+        <v>-4.842183047056214</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -2630,10 +2630,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-0.09598333451557987</v>
+        <v>-4.272919067265503</v>
       </c>
       <c r="B200" t="n">
-        <v>0.1482121841615475</v>
+        <v>-1.182338661278798</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
@@ -2641,10 +2641,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.5640527687106921</v>
+        <v>-1.140435145289046</v>
       </c>
       <c r="B201" t="n">
-        <v>0.4360772880075726</v>
+        <v>-0.2900471501068725</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -2652,10 +2652,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>-0.957665939568409</v>
+        <v>-8.36240279850534</v>
       </c>
       <c r="B202" t="n">
-        <v>-1.512082443900378</v>
+        <v>-6.32873113077528</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -2663,10 +2663,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>-1.460237069707743</v>
+        <v>-10.74756927215096</v>
       </c>
       <c r="B203" t="n">
-        <v>-1.123902695651927</v>
+        <v>-5.125495693262102</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -2674,10 +2674,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>-1.559068036402198</v>
+        <v>-11.21661393902676</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.8680968721279544</v>
+        <v>-4.332577893260634</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>-0.9011570883434871</v>
+        <v>-8.094215850782051</v>
       </c>
       <c r="B205" t="n">
-        <v>-1.333417995817018</v>
+        <v>-5.774927393389063</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -2696,10 +2696,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1.014721712243586</v>
+        <v>0.9984072799213598</v>
       </c>
       <c r="B206" t="n">
-        <v>0.8604228214817291</v>
+        <v>1.025290875460969</v>
       </c>
       <c r="C206" t="n">
         <v>2</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>-0.8894299427925462</v>
+        <v>-8.038559660598759</v>
       </c>
       <c r="B207" t="n">
-        <v>-1.49223833872359</v>
+        <v>-6.267220630337819</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -2718,10 +2718,10 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>-1.228449460748761</v>
+        <v>-9.647521934091229</v>
       </c>
       <c r="B208" t="n">
-        <v>-1.170299247576649</v>
+        <v>-5.269310448426802</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -2729,10 +2729,10 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1.069071643103124</v>
+        <v>1.256348146710082</v>
       </c>
       <c r="B209" t="n">
-        <v>0.7411452741053799</v>
+        <v>0.655567899055146</v>
       </c>
       <c r="C209" t="n">
         <v>2</v>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.2444832899704023</v>
+        <v>-2.657088930158112</v>
       </c>
       <c r="B210" t="n">
-        <v>0.862018260216919</v>
+        <v>1.030236235009538</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
@@ -2751,10 +2751,10 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.04749075503086644</v>
+        <v>-3.592001346965617</v>
       </c>
       <c r="B211" t="n">
-        <v>1.092394277111643</v>
+        <v>1.744329612450366</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
@@ -2762,10 +2762,10 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>-1.191948872553775</v>
+        <v>-9.474292765103964</v>
       </c>
       <c r="B212" t="n">
-        <v>-1.540671331975428</v>
+        <v>-6.417347714732104</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>-0.4281363141561653</v>
+        <v>-5.849293243276324</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.3863653385332769</v>
+        <v>-2.839361270796099</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
@@ -2784,10 +2784,10 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>-0.4276759806588806</v>
+        <v>-5.847108533573411</v>
       </c>
       <c r="B214" t="n">
-        <v>0.1852538663404751</v>
+        <v>-1.067521067460742</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
@@ -2795,10 +2795,10 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1.328641290211601</v>
+        <v>2.488247041673506</v>
       </c>
       <c r="B215" t="n">
-        <v>0.5910305492524029</v>
+        <v>0.1902593468943169</v>
       </c>
       <c r="C215" t="n">
         <v>2</v>
@@ -2806,10 +2806,10 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1.17662790200525</v>
+        <v>1.766802423486736</v>
       </c>
       <c r="B216" t="n">
-        <v>0.5882080990443763</v>
+        <v>0.1815106367252835</v>
       </c>
       <c r="C216" t="n">
         <v>2</v>
@@ -2817,10 +2817,10 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>-0.9686218586803891</v>
+        <v>-8.414398803422342</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.7845903348707738</v>
+        <v>-4.073733825930403</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>-1.052246640464626</v>
+        <v>-8.811276009286505</v>
       </c>
       <c r="B218" t="n">
-        <v>-1.444523069674009</v>
+        <v>-6.119318265801827</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-0.8045129529064652</v>
+        <v>-7.635549727929067</v>
       </c>
       <c r="B219" t="n">
-        <v>-1.505311142913692</v>
+        <v>-6.307742222049331</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -2850,10 +2850,10 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>-0.8787294935586142</v>
+        <v>-7.98777609736733</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.7188396611748331</v>
+        <v>-3.869927365165002</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.6749018122846715</v>
+        <v>-0.6143535490480585</v>
       </c>
       <c r="B221" t="n">
-        <v>1.403991973069524</v>
+        <v>2.710184713639237</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
@@ -2872,10 +2872,10 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>-0.2024911679344897</v>
+        <v>-4.778397592028726</v>
       </c>
       <c r="B222" t="n">
-        <v>1.443106347668528</v>
+        <v>2.831427003702149</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
@@ -2883,10 +2883,10 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-0.2200649623070492</v>
+        <v>-4.861801557434677</v>
       </c>
       <c r="B223" t="n">
-        <v>0.837830175557965</v>
+        <v>0.9552607609964152</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
@@ -2894,10 +2894,10 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>-0.7752710809244472</v>
+        <v>-7.496769904546038</v>
       </c>
       <c r="B224" t="n">
-        <v>-1.017531480711267</v>
+        <v>-4.79577829835562</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -2905,10 +2905,10 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1.09387753542529</v>
+        <v>1.374075129354889</v>
       </c>
       <c r="B225" t="n">
-        <v>0.7027505097342704</v>
+        <v>0.5365561749383104</v>
       </c>
       <c r="C225" t="n">
         <v>2</v>
@@ -2916,10 +2916,10 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.6281621990185808</v>
+        <v>-0.8361763953435353</v>
       </c>
       <c r="B226" t="n">
-        <v>0.9896367044170545</v>
+        <v>1.425813374813389</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
@@ -2927,10 +2927,10 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>-0.1763640121921843</v>
+        <v>-4.654399988125399</v>
       </c>
       <c r="B227" t="n">
-        <v>1.351769898458169</v>
+        <v>2.548312665763565</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
@@ -2938,10 +2938,10 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>-1.318551503991161</v>
+        <v>-10.07513975744124</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.137015302033469</v>
+        <v>-5.166140659280098</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1.008123574586755</v>
+        <v>0.9670929926816427</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.08087416843831233</v>
+        <v>-1.892434484006691</v>
       </c>
       <c r="C229" t="n">
         <v>1</v>
@@ -2960,10 +2960,10 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1.215625119004973</v>
+        <v>1.95188041339721</v>
       </c>
       <c r="B230" t="n">
-        <v>0.4500861035811746</v>
+        <v>-0.2466242167575624</v>
       </c>
       <c r="C230" t="n">
         <v>2</v>
@@ -2971,10 +2971,10 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>-0.3261055944982603</v>
+        <v>-5.365062778739891</v>
       </c>
       <c r="B231" t="n">
-        <v>0.3455381845602583</v>
+        <v>-0.570689966328068</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -2982,10 +2982,10 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1.149565582768969</v>
+        <v>1.638366600832984</v>
       </c>
       <c r="B232" t="n">
-        <v>0.7776679698640163</v>
+        <v>0.7687767977898028</v>
       </c>
       <c r="C232" t="n">
         <v>2</v>
@@ -2993,10 +2993,10 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>-1.180777136569405</v>
+        <v>-9.421272508817154</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.9644963471038684</v>
+        <v>-4.631386022669913</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>-1.013160565246725</v>
+        <v>-8.625776304657068</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.8765293305066014</v>
+        <v>-4.358715868753495</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>-1.277492166217825</v>
+        <v>-9.880275090503648</v>
       </c>
       <c r="B235" t="n">
-        <v>-1.487851080107383</v>
+        <v>-6.253621505024418</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>-1.050090082312241</v>
+        <v>-8.8010411392451</v>
       </c>
       <c r="B236" t="n">
-        <v>-1.564522895093919</v>
+        <v>-6.491280077545328</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1.301740658216762</v>
+        <v>2.36057857505032</v>
       </c>
       <c r="B237" t="n">
-        <v>0.5941308209493563</v>
+        <v>0.199869216519215</v>
       </c>
       <c r="C237" t="n">
         <v>2</v>
@@ -3048,10 +3048,10 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1.004870555003482</v>
+        <v>0.9516543954705691</v>
       </c>
       <c r="B238" t="n">
-        <v>0.6414545039149835</v>
+        <v>0.346557787045662</v>
       </c>
       <c r="C238" t="n">
         <v>2</v>
@@ -3059,10 +3059,10 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>-1.02151281845538</v>
+        <v>-8.665415498271631</v>
       </c>
       <c r="B239" t="n">
-        <v>-1.345137103748888</v>
+        <v>-5.811252951389692</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>-1.233487405626571</v>
+        <v>-9.671431658502366</v>
       </c>
       <c r="B240" t="n">
-        <v>-1.29070989099132</v>
+        <v>-5.642545667069802</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -3081,10 +3081,10 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.6724566301447179</v>
+        <v>-0.625958207796677</v>
       </c>
       <c r="B241" t="n">
-        <v>1.101838671960679</v>
+        <v>1.773604273530711</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
@@ -3092,10 +3092,10 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.02974175312557001</v>
+        <v>-3.676236834733186</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.8610488962467073</v>
+        <v>-4.310731379161638</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
@@ -3103,10 +3103,10 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1.152264732209899</v>
+        <v>1.65117657014435</v>
       </c>
       <c r="B243" t="n">
-        <v>0.9689274165072876</v>
+        <v>1.36162107933396</v>
       </c>
       <c r="C243" t="n">
         <v>2</v>
@@ -3114,10 +3114,10 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.1502979704088669</v>
+        <v>-3.10408568953323</v>
       </c>
       <c r="B244" t="n">
-        <v>0.01480306635699172</v>
+        <v>-1.595865072571823</v>
       </c>
       <c r="C244" t="n">
         <v>1</v>
@@ -3125,10 +3125,10 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>-0.8692575371891803</v>
+        <v>-7.942822873002962</v>
       </c>
       <c r="B245" t="n">
-        <v>-1.33254491282105</v>
+        <v>-5.772221110010349</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -3136,10 +3136,10 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1.339826992185734</v>
+        <v>2.541333579544268</v>
       </c>
       <c r="B246" t="n">
-        <v>0.8020610950539384</v>
+        <v>0.8443878331223931</v>
       </c>
       <c r="C246" t="n">
         <v>2</v>
@@ -3147,10 +3147,10 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>-0.9942786184401632</v>
+        <v>-8.53616394179077</v>
       </c>
       <c r="B247" t="n">
-        <v>-1.285321683226133</v>
+        <v>-5.625843913418277</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1.143864311981482</v>
+        <v>1.611308779314824</v>
       </c>
       <c r="B248" t="n">
-        <v>0.8292105406175562</v>
+        <v>0.9285425968842358</v>
       </c>
       <c r="C248" t="n">
         <v>2</v>
@@ -3169,10 +3169,10 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1.277094338634546</v>
+        <v>2.243608913163933</v>
       </c>
       <c r="B249" t="n">
-        <v>0.7664835035384286</v>
+        <v>0.7341084610377103</v>
       </c>
       <c r="C249" t="n">
         <v>2</v>
@@ -3180,10 +3180,10 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1.332223303730653</v>
+        <v>2.505247020465398</v>
       </c>
       <c r="B250" t="n">
-        <v>0.7753425726106946</v>
+        <v>0.7615687958419486</v>
       </c>
       <c r="C250" t="n">
         <v>2</v>
@@ -3191,10 +3191,10 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>-0.1341764235512908</v>
+        <v>-4.454180723635784</v>
       </c>
       <c r="B251" t="n">
-        <v>1.612067076927507</v>
+        <v>3.355152257041107</v>
       </c>
       <c r="C251" t="n">
         <v>1</v>
@@ -3202,10 +3202,10 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>-0.4463629280604069</v>
+        <v>-5.935795443274218</v>
       </c>
       <c r="B252" t="n">
-        <v>0.9504215891143053</v>
+        <v>1.304258820173838</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -3213,10 +3213,10 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>-0.9087890859179636</v>
+        <v>-8.130436762907543</v>
       </c>
       <c r="B253" t="n">
-        <v>-1.589854172307086</v>
+        <v>-6.569799089827351</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -3224,10 +3224,10 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>-0.6163171498559941</v>
+        <v>-6.742385968617327</v>
       </c>
       <c r="B254" t="n">
-        <v>1.788354596961906</v>
+        <v>3.901588263179532</v>
       </c>
       <c r="C254" t="n">
         <v>1</v>
@@ -3235,10 +3235,10 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1.265038966836169</v>
+        <v>2.186394984793537</v>
       </c>
       <c r="B255" t="n">
-        <v>0.7569168090036074</v>
+        <v>0.7044547093000149</v>
       </c>
       <c r="C255" t="n">
         <v>2</v>
@@ -3246,10 +3246,10 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>-1.309067209625805</v>
+        <v>-10.03012797783472</v>
       </c>
       <c r="B256" t="n">
-        <v>-1.128898376121956</v>
+        <v>-5.140980735444632</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -3257,10 +3257,10 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>-1.097630054976522</v>
+        <v>-9.026662433738153</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.7429397746370977</v>
+        <v>-3.944630156067234</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1.118245848935741</v>
+        <v>1.489725394399556</v>
       </c>
       <c r="B258" t="n">
-        <v>0.6321898677101245</v>
+        <v>0.317840321367316</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -3279,10 +3279,10 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1.167431664367692</v>
+        <v>1.723157740413315</v>
       </c>
       <c r="B259" t="n">
-        <v>0.9825923257897317</v>
+        <v>1.403978011073005</v>
       </c>
       <c r="C259" t="n">
         <v>2</v>
@@ -3290,10 +3290,10 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>-0.8602099892521372</v>
+        <v>-7.899883860564755</v>
       </c>
       <c r="B260" t="n">
-        <v>-1.480996291822648</v>
+        <v>-6.232373811866647</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -3301,10 +3301,10 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>-0.4936953658305439</v>
+        <v>-6.160431792071151</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.7846001149738536</v>
+        <v>-4.073764141181679</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -3312,10 +3312,10 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.04363741511702966</v>
+        <v>-3.61028902133222</v>
       </c>
       <c r="B262" t="n">
-        <v>0.9029954425224993</v>
+        <v>1.157252644551735</v>
       </c>
       <c r="C262" t="n">
         <v>1</v>
@@ -3323,10 +3323,10 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1.164226573863503</v>
+        <v>1.707946611167845</v>
       </c>
       <c r="B263" t="n">
-        <v>0.7072754365727291</v>
+        <v>0.5505820285505996</v>
       </c>
       <c r="C263" t="n">
         <v>2</v>
@@ -3334,10 +3334,10 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>-1.006345481130961</v>
+        <v>-8.593432405110972</v>
       </c>
       <c r="B264" t="n">
-        <v>-1.238467131321927</v>
+        <v>-5.48060950200365</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -3345,10 +3345,10 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1.301292023554373</v>
+        <v>2.358449387177254</v>
       </c>
       <c r="B265" t="n">
-        <v>0.6658403327076603</v>
+        <v>0.422146205835861</v>
       </c>
       <c r="C265" t="n">
         <v>2</v>
@@ -3356,10 +3356,10 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.008902037745100956</v>
+        <v>-3.775140626584562</v>
       </c>
       <c r="B266" t="n">
-        <v>2.182253071878722</v>
+        <v>5.122549959251732</v>
       </c>
       <c r="C266" t="n">
         <v>1</v>
@@ -3367,10 +3367,10 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1.27583683380513</v>
+        <v>2.237640885595898</v>
       </c>
       <c r="B267" t="n">
-        <v>0.696153241212514</v>
+        <v>0.5161067122551445</v>
       </c>
       <c r="C267" t="n">
         <v>2</v>
@@ -3378,10 +3378,10 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1.309450222137371</v>
+        <v>2.397167611481374</v>
       </c>
       <c r="B268" t="n">
-        <v>0.6875819595458096</v>
+        <v>0.4895384281217723</v>
       </c>
       <c r="C268" t="n">
         <v>2</v>
@@ -3389,10 +3389,10 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1.217858346192967</v>
+        <v>1.9624791491729</v>
       </c>
       <c r="B269" t="n">
-        <v>0.6086889549370273</v>
+        <v>0.2449948646167022</v>
       </c>
       <c r="C269" t="n">
         <v>2</v>
@@ -3400,10 +3400,10 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>-0.9638172867891228</v>
+        <v>-8.391596650437368</v>
       </c>
       <c r="B270" t="n">
-        <v>-1.258224931790172</v>
+        <v>-5.541852484920653</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -3411,10 +3411,10 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1.309904872714438</v>
+        <v>2.399325350453257</v>
       </c>
       <c r="B271" t="n">
-        <v>0.9110742076710131</v>
+        <v>1.182294281993924</v>
       </c>
       <c r="C271" t="n">
         <v>2</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>-0.8479246389293733</v>
+        <v>-7.841578470641693</v>
       </c>
       <c r="B272" t="n">
-        <v>-1.513365410190849</v>
+        <v>-6.332707923775932</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1.1293852702247</v>
+        <v>1.542592287463777</v>
       </c>
       <c r="B273" t="n">
-        <v>0.7207820341373089</v>
+        <v>0.5924482436307584</v>
       </c>
       <c r="C273" t="n">
         <v>2</v>
@@ -3444,10 +3444,10 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>-0.2295865987867413</v>
+        <v>-4.906990560032789</v>
       </c>
       <c r="B274" t="n">
-        <v>0.6593868782034631</v>
+        <v>0.4021425214889401</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -3455,10 +3455,10 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>-0.4812887972087651</v>
+        <v>-6.101551108810561</v>
       </c>
       <c r="B275" t="n">
-        <v>0.5994508619092696</v>
+        <v>0.2163596744600866</v>
       </c>
       <c r="C275" t="n">
         <v>1</v>
@@ -3466,10 +3466,10 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.66172602279962</v>
+        <v>-0.676884899256823</v>
       </c>
       <c r="B276" t="n">
-        <v>0.4200928278768135</v>
+        <v>-0.3395939617724205</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
@@ -3477,10 +3477,10 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>-1.227250908512318</v>
+        <v>-9.641833691293668</v>
       </c>
       <c r="B277" t="n">
-        <v>-1.607885316144648</v>
+        <v>-6.625689978886216</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -3488,10 +3488,10 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>-0.2798670397004374</v>
+        <v>-5.145617919933503</v>
       </c>
       <c r="B278" t="n">
-        <v>1.792093231800455</v>
+        <v>3.913176858272299</v>
       </c>
       <c r="C278" t="n">
         <v>1</v>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>-0.830455249430772</v>
+        <v>-7.758670003266003</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.3681236037652037</v>
+        <v>-2.782817615920488</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -3510,10 +3510,10 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>-0.9187270031254386</v>
+        <v>-8.177601403929728</v>
       </c>
       <c r="B280" t="n">
-        <v>-1.163395066991365</v>
+        <v>-5.247909654632975</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -3521,10 +3521,10 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.7829420398602269</v>
+        <v>-0.101602391720709</v>
       </c>
       <c r="B281" t="n">
-        <v>0.1139513587922152</v>
+        <v>-1.28853647141403</v>
       </c>
       <c r="C281" t="n">
         <v>1</v>
@@ -3532,10 +3532,10 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.305185229395503</v>
+        <v>-2.369001887112331</v>
       </c>
       <c r="B282" t="n">
-        <v>0.4764545434850624</v>
+        <v>-0.1648903255191471</v>
       </c>
       <c r="C282" t="n">
         <v>1</v>
@@ -3543,10 +3543,10 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.266492902149052</v>
+        <v>-2.55263289216026</v>
       </c>
       <c r="B283" t="n">
-        <v>0.4530945708365567</v>
+        <v>-0.2372989121001003</v>
       </c>
       <c r="C283" t="n">
         <v>1</v>
@@ -3554,10 +3554,10 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>-1.629174535604348</v>
+        <v>-11.54933434705193</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.4614162825700636</v>
+        <v>-3.071995651882053</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.9959978399350928</v>
+        <v>0.9095451272651629</v>
       </c>
       <c r="B285" t="n">
-        <v>0.6439477779540156</v>
+        <v>0.3542861543619159</v>
       </c>
       <c r="C285" t="n">
         <v>2</v>
@@ -3576,10 +3576,10 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>-0.0265885007545637</v>
+        <v>-3.943576172290422</v>
       </c>
       <c r="B286" t="n">
-        <v>0.3531068399957629</v>
+        <v>-0.5472295089615569</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
@@ -3587,10 +3587,10 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>1.27628627545814</v>
+        <v>2.23977390338847</v>
       </c>
       <c r="B287" t="n">
-        <v>0.8006719048564505</v>
+        <v>0.8400817793351831</v>
       </c>
       <c r="C287" t="n">
         <v>2</v>
@@ -3598,10 +3598,10 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.1335508756569411</v>
+        <v>-3.18356619793845</v>
       </c>
       <c r="B288" t="n">
-        <v>0.366716671513912</v>
+        <v>-0.5050433010125023</v>
       </c>
       <c r="C288" t="n">
         <v>1</v>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>-1.003451125799119</v>
+        <v>-8.579696002666978</v>
       </c>
       <c r="B289" t="n">
-        <v>-1.850297585832039</v>
+        <v>-7.377091963899568</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -3620,10 +3620,10 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>-1.113251890543905</v>
+        <v>-9.10080254290399</v>
       </c>
       <c r="B290" t="n">
-        <v>-1.169697497509348</v>
+        <v>-5.267445212002776</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -3631,10 +3631,10 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.02190053141428724</v>
+        <v>-3.713450709579098</v>
       </c>
       <c r="B291" t="n">
-        <v>0.2230861888877015</v>
+        <v>-0.9502527365453535</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
@@ -3642,10 +3642,10 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.3554285480403399</v>
+        <v>-2.130550706832369</v>
       </c>
       <c r="B292" t="n">
-        <v>0.5548638685610688</v>
+        <v>0.07815398317713487</v>
       </c>
       <c r="C292" t="n">
         <v>1</v>
@@ -3653,10 +3653,10 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>-0.7398485816547199</v>
+        <v>-7.328657268136807</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.8901592585886224</v>
+        <v>-4.400964369745739</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -3664,10 +3664,10 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>1.030106113271517</v>
+        <v>1.071420541822748</v>
       </c>
       <c r="B294" t="n">
-        <v>0.6501076573521166</v>
+        <v>0.3733798479820649</v>
       </c>
       <c r="C294" t="n">
         <v>2</v>
@@ -3675,10 +3675,10 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>1.29572308816605</v>
+        <v>2.332019619955163</v>
       </c>
       <c r="B295" t="n">
-        <v>0.8065640452849063</v>
+        <v>0.8583455661460925</v>
       </c>
       <c r="C295" t="n">
         <v>2</v>
@@ -3686,10 +3686,10 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>-1.054107727053665</v>
+        <v>-8.82010859251805</v>
       </c>
       <c r="B296" t="n">
-        <v>-1.678763390021704</v>
+        <v>-6.845389771614625</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -3697,10 +3697,10 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>-1.377706776466351</v>
+        <v>-10.35588643027157</v>
       </c>
       <c r="B297" t="n">
-        <v>-1.472181147830876</v>
+        <v>-6.205049631031504</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>1.164446506050913</v>
+        <v>1.708990393527055</v>
       </c>
       <c r="B298" t="n">
-        <v>0.7876702615632897</v>
+        <v>0.7997807640791692</v>
       </c>
       <c r="C298" t="n">
         <v>1</v>
@@ -3719,10 +3719,10 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>1.117644224144632</v>
+        <v>1.486870126368007</v>
       </c>
       <c r="B299" t="n">
-        <v>0.6727300134580265</v>
+        <v>0.4435020546904154</v>
       </c>
       <c r="C299" t="n">
         <v>2</v>
@@ -3730,10 +3730,10 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>-1.293583912936612</v>
+        <v>-9.956645364230686</v>
       </c>
       <c r="B300" t="n">
-        <v>-1.422845269582364</v>
+        <v>-6.052123886405973</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -3741,10 +3741,10 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>-1.091894870237018</v>
+        <v>-8.999443659040459</v>
       </c>
       <c r="B301" t="n">
-        <v>-1.130400116094186</v>
+        <v>-5.145635658223759</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>-1.464322554372016</v>
+        <v>-10.76695868882341</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.7804397860882155</v>
+        <v>-4.060868426839297</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -3763,10 +3763,10 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>-0.7651398274127016</v>
+        <v>-7.448687703315098</v>
       </c>
       <c r="B303" t="n">
-        <v>0.5528254639596922</v>
+        <v>0.07183556841327018</v>
       </c>
       <c r="C303" t="n">
         <v>1</v>
@@ -3774,10 +3774,10 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>-1.04000716602797</v>
+        <v>-8.753188343022702</v>
       </c>
       <c r="B304" t="n">
-        <v>-1.119732014534695</v>
+        <v>-5.112567890249545</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -3785,10 +3785,10 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>1.075530307383448</v>
+        <v>1.287000503326132</v>
       </c>
       <c r="B305" t="n">
-        <v>0.5881064726543208</v>
+        <v>0.1811956267989462</v>
       </c>
       <c r="C305" t="n">
         <v>2</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>-0.9318782638303651</v>
+        <v>-8.240016342310424</v>
       </c>
       <c r="B306" t="n">
-        <v>-1.244434617955889</v>
+        <v>-5.49910683841357</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -3807,10 +3807,10 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>1.173441522090127</v>
+        <v>1.751680093352606</v>
       </c>
       <c r="B307" t="n">
-        <v>0.8753209176895059</v>
+        <v>1.071470299785817</v>
       </c>
       <c r="C307" t="n">
         <v>2</v>
@@ -3818,10 +3818,10 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>0.1161867144651445</v>
+        <v>-3.265975259330753</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.06018068008787305</v>
+        <v>-1.828291162204447</v>
       </c>
       <c r="C308" t="n">
         <v>1</v>
@@ -3829,10 +3829,10 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>1.187158751830258</v>
+        <v>1.816781080109216</v>
       </c>
       <c r="B309" t="n">
-        <v>0.9104301950694895</v>
+        <v>1.180298044972661</v>
       </c>
       <c r="C309" t="n">
         <v>2</v>
@@ -3840,10 +3840,10 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>1.292773127021541</v>
+        <v>2.318019316319555</v>
       </c>
       <c r="B310" t="n">
-        <v>0.6040739950315728</v>
+        <v>0.2306899367424346</v>
       </c>
       <c r="C310" t="n">
         <v>2</v>
@@ -3851,10 +3851,10 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>-0.7672459869246491</v>
+        <v>-7.458683385030151</v>
       </c>
       <c r="B311" t="n">
-        <v>-1.01938517201009</v>
+        <v>-4.801524159830924</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -3862,10 +3862,10 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>-0.6227543591828075</v>
+        <v>-6.772936501565564</v>
       </c>
       <c r="B312" t="n">
-        <v>2.072612284918659</v>
+        <v>4.782697916834662</v>
       </c>
       <c r="C312" t="n">
         <v>1</v>
@@ -3873,10 +3873,10 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0.08746972557809331</v>
+        <v>-3.402264025258192</v>
       </c>
       <c r="B313" t="n">
-        <v>0.8047671257679776</v>
+        <v>0.8527756793838809</v>
       </c>
       <c r="C313" t="n">
         <v>1</v>
@@ -3884,10 +3884,10 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>-0.7851213074926897</v>
+        <v>-7.543518372095043</v>
       </c>
       <c r="B314" t="n">
-        <v>-1.815215203263737</v>
+        <v>-7.268347584191338</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>-0.9442617418962237</v>
+        <v>-8.298787439451685</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.06380914560350566</v>
+        <v>-1.839538266959148</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -3906,10 +3906,10 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>-0.9707667534856926</v>
+        <v>-8.424578320056511</v>
       </c>
       <c r="B316" t="n">
-        <v>-1.187506210606544</v>
+        <v>-5.322646635548799</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -3917,10 +3917,10 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>-1.289573798918503</v>
+        <v>-9.93761365122951</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.7182494822454535</v>
+        <v>-3.868097995638365</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -3928,10 +3928,10 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>1.295699021841977</v>
+        <v>2.331905402910293</v>
       </c>
       <c r="B318" t="n">
-        <v>0.9093813769007806</v>
+        <v>1.177047037691131</v>
       </c>
       <c r="C318" t="n">
         <v>2</v>
@@ -3939,10 +3939,10 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>-0.7940049840774327</v>
+        <v>-7.585679662869475</v>
       </c>
       <c r="B319" t="n">
-        <v>-1.193527784761507</v>
+        <v>-5.341311626305162</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -3950,10 +3950,10 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>1.12872606704482</v>
+        <v>1.539463756536153</v>
       </c>
       <c r="B320" t="n">
-        <v>0.4956058622093086</v>
+        <v>-0.1055272457394831</v>
       </c>
       <c r="C320" t="n">
         <v>2</v>
@@ -3961,10 +3961,10 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>-0.3966069687945467</v>
+        <v>-5.699657235589855</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.6627257391295511</v>
+        <v>-3.695991811217657</v>
       </c>
       <c r="C321" t="n">
         <v>1</v>
@@ -3972,10 +3972,10 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>-1.334379341567265</v>
+        <v>-10.15025753733912</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.8143108909789583</v>
+        <v>-4.165858225756326</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>1.286645469892756</v>
+        <v>2.28893789586168</v>
       </c>
       <c r="B323" t="n">
-        <v>0.6897688219930805</v>
+        <v>0.496317015632832</v>
       </c>
       <c r="C323" t="n">
         <v>2</v>
@@ -3994,10 +3994,10 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>1.097785604596446</v>
+        <v>1.392622544844404</v>
       </c>
       <c r="B324" t="n">
-        <v>0.7028229609132459</v>
+        <v>0.5367807508633201</v>
       </c>
       <c r="C324" t="n">
         <v>2</v>
@@ -4005,10 +4005,10 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>-1.005967904704787</v>
+        <v>-8.591640454521411</v>
       </c>
       <c r="B325" t="n">
-        <v>-1.941357578573686</v>
+        <v>-7.659349373516713</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -4016,10 +4016,10 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>-1.099970855274834</v>
+        <v>-9.037771703766232</v>
       </c>
       <c r="B326" t="n">
-        <v>0.8144287286221386</v>
+        <v>0.8827236171363273</v>
       </c>
       <c r="C326" t="n">
         <v>1</v>
@@ -4027,10 +4027,10 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>-1.16466761054413</v>
+        <v>-9.344817855778976</v>
       </c>
       <c r="B327" t="n">
-        <v>-1.787348378704235</v>
+        <v>-7.181969170602655</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -4038,10 +4038,10 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>0.3516174798344077</v>
+        <v>-2.148637762710501</v>
       </c>
       <c r="B328" t="n">
-        <v>0.9466589585487192</v>
+        <v>1.292595845855338</v>
       </c>
       <c r="C328" t="n">
         <v>1</v>
@@ -4049,10 +4049,10 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>1.270088889256916</v>
+        <v>2.210361553762862</v>
       </c>
       <c r="B329" t="n">
-        <v>0.8391298952165305</v>
+        <v>0.9592894841821944</v>
       </c>
       <c r="C329" t="n">
         <v>2</v>
@@ -4060,10 +4060,10 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>-0.7539234367174015</v>
+        <v>-7.395455518978677</v>
       </c>
       <c r="B330" t="n">
-        <v>-1.631114897972523</v>
+        <v>-6.697694394830196</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>1.259683999424888</v>
+        <v>2.160980694216776</v>
       </c>
       <c r="B331" t="n">
-        <v>0.8303830317152465</v>
+        <v>0.9321769514462019</v>
       </c>
       <c r="C331" t="n">
         <v>2</v>
@@ -4082,10 +4082,10 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>-1.12021283236694</v>
+        <v>-9.133838672648842</v>
       </c>
       <c r="B332" t="n">
-        <v>-1.131712224118899</v>
+        <v>-5.149702781458045</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -4093,10 +4093,10 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>1.169071633027126</v>
+        <v>1.730940913838392</v>
       </c>
       <c r="B333" t="n">
-        <v>0.6967810750061308</v>
+        <v>0.5180528000476083</v>
       </c>
       <c r="C333" t="n">
         <v>2</v>
@@ -4104,10 +4104,10 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>0.5882780233525924</v>
+        <v>-1.025463827355664</v>
       </c>
       <c r="B334" t="n">
-        <v>0.08793516327430888</v>
+        <v>-1.369178515564105</v>
       </c>
       <c r="C334" t="n">
         <v>1</v>
@@ -4115,10 +4115,10 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>1.198761134323373</v>
+        <v>1.871845153784358</v>
       </c>
       <c r="B335" t="n">
-        <v>0.5008366007058267</v>
+        <v>-0.08931359741863709</v>
       </c>
       <c r="C335" t="n">
         <v>2</v>
@@ -4126,10 +4126,10 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>1.262501580799879</v>
+        <v>2.174352732977802</v>
       </c>
       <c r="B336" t="n">
-        <v>0.6891101336500599</v>
+        <v>0.4942752884170884</v>
       </c>
       <c r="C336" t="n">
         <v>2</v>
@@ -4137,10 +4137,10 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>1.115842698830955</v>
+        <v>1.478320216669824</v>
       </c>
       <c r="B337" t="n">
-        <v>0.8122635997722348</v>
+        <v>0.8760123969587129</v>
       </c>
       <c r="C337" t="n">
         <v>2</v>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>1.102386550723144</v>
+        <v>1.414458304581352</v>
       </c>
       <c r="B338" t="n">
-        <v>0.6130948260621896</v>
+        <v>0.2586516828686379</v>
       </c>
       <c r="C338" t="n">
         <v>2</v>
@@ -4159,10 +4159,10 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>1.332028373038607</v>
+        <v>2.504321893406821</v>
       </c>
       <c r="B339" t="n">
-        <v>0.6378513495251739</v>
+        <v>0.3353891388402557</v>
       </c>
       <c r="C339" t="n">
         <v>2</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>-0.7482915657349417</v>
+        <v>-7.368727063948766</v>
       </c>
       <c r="B340" t="n">
-        <v>-1.041893415414759</v>
+        <v>-4.871292652965542</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -4181,10 +4181,10 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>-1.137862934735903</v>
+        <v>-9.217604790322953</v>
       </c>
       <c r="B341" t="n">
-        <v>-1.233353652314989</v>
+        <v>-5.46475932131316</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -4192,10 +4192,10 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>-1.287680319532047</v>
+        <v>-9.928627334108862</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.4880826173249184</v>
+        <v>-3.154652923701124</v>
       </c>
       <c r="C342" t="n">
         <v>1</v>
@@ -4203,10 +4203,10 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>-1.000644625112146</v>
+        <v>-8.566376552055129</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.7569101635551146</v>
+        <v>-3.987933978839669</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -4214,10 +4214,10 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>1.293776989589651</v>
+        <v>2.322783575939765</v>
       </c>
       <c r="B344" t="n">
-        <v>0.4332148902229511</v>
+        <v>-0.2989196852307588</v>
       </c>
       <c r="C344" t="n">
         <v>2</v>
@@ -4225,10 +4225,10 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>-0.3610061678552824</v>
+        <v>-5.53069839226807</v>
       </c>
       <c r="B345" t="n">
-        <v>0.6126911420810677</v>
+        <v>0.257400389173297</v>
       </c>
       <c r="C345" t="n">
         <v>1</v>
@@ -4236,10 +4236,10 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>1.153198070832915</v>
+        <v>1.655606128188321</v>
       </c>
       <c r="B346" t="n">
-        <v>0.670968799117303</v>
+        <v>0.4380428427727998</v>
       </c>
       <c r="C346" t="n">
         <v>2</v>
@@ -4247,10 +4247,10 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>-1.221511977770859</v>
+        <v>-9.614597138339844</v>
       </c>
       <c r="B347" t="n">
-        <v>-1.057118992080077</v>
+        <v>-4.918487163969653</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -4258,10 +4258,10 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>-0.9853718847763403</v>
+        <v>-8.493893223775688</v>
       </c>
       <c r="B348" t="n">
-        <v>-1.616479477985942</v>
+        <v>-6.652329184382712</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -4269,10 +4269,10 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>-1.043283828870994</v>
+        <v>-8.768739149445773</v>
       </c>
       <c r="B349" t="n">
-        <v>-1.38858022050084</v>
+        <v>-5.945912984088036</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -4280,10 +4280,10 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>-1.388864654326448</v>
+        <v>-10.4088409168963</v>
       </c>
       <c r="B350" t="n">
-        <v>-1.354752516051426</v>
+        <v>-5.84105771292328</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -4291,10 +4291,10 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>-0.3288323444016273</v>
+        <v>-5.37800373786288</v>
       </c>
       <c r="B351" t="n">
-        <v>0.8733543359674352</v>
+        <v>1.065374513415099</v>
       </c>
       <c r="C351" t="n">
         <v>1</v>
@@ -4302,10 +4302,10 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>1.387779403005839</v>
+        <v>2.768912275890964</v>
       </c>
       <c r="B352" t="n">
-        <v>0.7386223071643212</v>
+        <v>0.6477474930580431</v>
       </c>
       <c r="C352" t="n">
         <v>2</v>
@@ -4313,10 +4313,10 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>-0.3446187017352921</v>
+        <v>-5.452924655510513</v>
       </c>
       <c r="B353" t="n">
-        <v>0.4153331104448326</v>
+        <v>-0.3543475925647281</v>
       </c>
       <c r="C353" t="n">
         <v>1</v>
@@ -4324,10 +4324,10 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>-0.0313607854691751</v>
+        <v>-3.966225092654842</v>
       </c>
       <c r="B354" t="n">
-        <v>0.6209857720265427</v>
+        <v>0.2831111397636802</v>
       </c>
       <c r="C354" t="n">
         <v>1</v>
@@ -4335,10 +4335,10 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>1.285162569223147</v>
+        <v>2.281900155830892</v>
       </c>
       <c r="B355" t="n">
-        <v>0.9127800977686278</v>
+        <v>1.187582006114553</v>
       </c>
       <c r="C355" t="n">
         <v>2</v>
@@ -4346,10 +4346,10 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>-1.062303318381377</v>
+        <v>-8.859004280101894</v>
       </c>
       <c r="B356" t="n">
-        <v>-1.295029866138532</v>
+        <v>-5.655936234737887</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -4357,10 +4357,10 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>1.209762828641224</v>
+        <v>1.92405840453945</v>
       </c>
       <c r="B357" t="n">
-        <v>0.8953085735781302</v>
+        <v>1.133425762394388</v>
       </c>
       <c r="C357" t="n">
         <v>2</v>
@@ -4368,10 +4368,10 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>1.379129343495746</v>
+        <v>2.727859714967314</v>
       </c>
       <c r="B358" t="n">
-        <v>0.8835857016131993</v>
+        <v>1.097088537072147</v>
       </c>
       <c r="C358" t="n">
         <v>2</v>
@@ -4379,10 +4379,10 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>-0.1599768812980907</v>
+        <v>-4.576627842325862</v>
       </c>
       <c r="B359" t="n">
-        <v>0.9146612975612297</v>
+        <v>1.193413135290442</v>
       </c>
       <c r="C359" t="n">
         <v>1</v>
@@ -4390,10 +4390,10 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>1.349029264794284</v>
+        <v>2.585006904156399</v>
       </c>
       <c r="B360" t="n">
-        <v>0.6569096413028964</v>
+        <v>0.3944638642706625</v>
       </c>
       <c r="C360" t="n">
         <v>2</v>
@@ -4401,10 +4401,10 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>1.163801977486466</v>
+        <v>1.705931507269898</v>
       </c>
       <c r="B361" t="n">
-        <v>0.7352980541099202</v>
+        <v>0.6374433514938195</v>
       </c>
       <c r="C361" t="n">
         <v>2</v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>1.283604066127149</v>
+        <v>2.274503612116542</v>
       </c>
       <c r="B362" t="n">
-        <v>0.6296969310027781</v>
+        <v>0.3101129996734579</v>
       </c>
       <c r="C362" t="n">
         <v>2</v>
@@ -4423,10 +4423,10 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>-1.347328336587262</v>
+        <v>-10.21171253731203</v>
       </c>
       <c r="B363" t="n">
-        <v>-1.146360583171669</v>
+        <v>-5.195108098951394</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -4434,10 +4434,10 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>-1.113177168056173</v>
+        <v>-9.100447915346061</v>
       </c>
       <c r="B364" t="n">
-        <v>-1.72399235537228</v>
+        <v>-6.985585374701667</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -4445,10 +4445,10 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>1.159235384319307</v>
+        <v>1.684258784210643</v>
       </c>
       <c r="B365" t="n">
-        <v>0.8848167046092431</v>
+        <v>1.100904260162309</v>
       </c>
       <c r="C365" t="n">
         <v>2</v>
@@ -4456,10 +4456,10 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>1.058564446458454</v>
+        <v>1.206481746381994</v>
       </c>
       <c r="B366" t="n">
-        <v>0.5975072570615722</v>
+        <v>0.2103351091914856</v>
       </c>
       <c r="C366" t="n">
         <v>2</v>
@@ -4467,10 +4467,10 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0.1289411474587041</v>
+        <v>-3.205443636755927</v>
       </c>
       <c r="B367" t="n">
-        <v>0.04463496772084258</v>
+        <v>-1.503395537385229</v>
       </c>
       <c r="C367" t="n">
         <v>1</v>
@@ -4478,10 +4478,10 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>-0.02253185063400887</v>
+        <v>-3.924323602290678</v>
       </c>
       <c r="B368" t="n">
-        <v>-0.02885100163088441</v>
+        <v>-1.731178987920655</v>
       </c>
       <c r="C368" t="n">
         <v>1</v>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>1.264586149876705</v>
+        <v>2.184245948039052</v>
       </c>
       <c r="B369" t="n">
-        <v>0.719692762312472</v>
+        <v>0.5890718427065929</v>
       </c>
       <c r="C369" t="n">
         <v>2</v>
@@ -4500,10 +4500,10 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>-1.17510694643017</v>
+        <v>-9.39436219382244</v>
       </c>
       <c r="B370" t="n">
-        <v>-1.333236619331197</v>
+        <v>-5.774365183185528</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -4511,10 +4511,10 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>1.394612884433649</v>
+        <v>2.801343487758174</v>
       </c>
       <c r="B371" t="n">
-        <v>0.5913066778910081</v>
+        <v>0.1911152590452758</v>
       </c>
       <c r="C371" t="n">
         <v>2</v>
@@ -4522,10 +4522,10 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>0.1743874060209469</v>
+        <v>-2.989758958956708</v>
       </c>
       <c r="B372" t="n">
-        <v>1.669133538278887</v>
+        <v>3.532040384001065</v>
       </c>
       <c r="C372" t="n">
         <v>1</v>
@@ -4533,10 +4533,10 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>1.1325431234835</v>
+        <v>1.55757923213665</v>
       </c>
       <c r="B373" t="n">
-        <v>0.5846485896801902</v>
+        <v>0.1704772744067334</v>
       </c>
       <c r="C373" t="n">
         <v>2</v>
@@ -4544,10 +4544,10 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>-0.009268164855787332</v>
+        <v>-3.861375102589923</v>
       </c>
       <c r="B374" t="n">
-        <v>1.176440945560643</v>
+        <v>2.00484791702207</v>
       </c>
       <c r="C374" t="n">
         <v>1</v>
@@ -4555,10 +4555,10 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>1.218542321314578</v>
+        <v>1.965725245956097</v>
       </c>
       <c r="B375" t="n">
-        <v>0.7144336771898148</v>
+        <v>0.5727703287377873</v>
       </c>
       <c r="C375" t="n">
         <v>2</v>
@@ -4566,10 +4566,10 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>-1.043784918983869</v>
+        <v>-8.771117287117898</v>
       </c>
       <c r="B376" t="n">
-        <v>-1.031310421838193</v>
+        <v>-4.838488693037811</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -4577,10 +4577,10 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>1.232845394342589</v>
+        <v>2.033606602863845</v>
       </c>
       <c r="B377" t="n">
-        <v>0.7097378432898731</v>
+        <v>0.55821471685288</v>
       </c>
       <c r="C377" t="n">
         <v>2</v>
@@ -4588,10 +4588,10 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>0.5399731226323515</v>
+        <v>-1.254715415441824</v>
       </c>
       <c r="B378" t="n">
-        <v>0.455147260007058</v>
+        <v>-0.230936219653389</v>
       </c>
       <c r="C378" t="n">
         <v>1</v>
@@ -4599,10 +4599,10 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>1.154099173864502</v>
+        <v>1.659882698431516</v>
       </c>
       <c r="B379" t="n">
-        <v>0.2687442818529486</v>
+        <v>-0.8087269724812935</v>
       </c>
       <c r="C379" t="n">
         <v>2</v>
@@ -4610,10 +4610,10 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>0.3341073062416375</v>
+        <v>-2.231739788466758</v>
       </c>
       <c r="B380" t="n">
-        <v>1.305094172749096</v>
+        <v>2.403632559451437</v>
       </c>
       <c r="C380" t="n">
         <v>1</v>
@@ -4621,10 +4621,10 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>-1.024699037030395</v>
+        <v>-8.680537062697201</v>
       </c>
       <c r="B381" t="n">
-        <v>-0.4634932010807803</v>
+        <v>-3.07843344768206</v>
       </c>
       <c r="C381" t="n">
         <v>0</v>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>-0.877408213781749</v>
+        <v>-7.981505398480964</v>
       </c>
       <c r="B382" t="n">
-        <v>1.919622934795838</v>
+        <v>4.308478928181835</v>
       </c>
       <c r="C382" t="n">
         <v>1</v>
@@ -4643,10 +4643,10 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>-1.621884403674865</v>
+        <v>-11.51473590471436</v>
       </c>
       <c r="B383" t="n">
-        <v>-1.630221265959344</v>
+        <v>-6.694924415944886</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
@@ -4654,10 +4654,10 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>1.092625604258901</v>
+        <v>1.368133553991107</v>
       </c>
       <c r="B384" t="n">
-        <v>0.7653576685771954</v>
+        <v>0.7306187258615205</v>
       </c>
       <c r="C384" t="n">
         <v>2</v>
@@ -4665,10 +4665,10 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>-0.6222515080592982</v>
+        <v>-6.770550006263502</v>
       </c>
       <c r="B385" t="n">
-        <v>1.693429861633603</v>
+        <v>3.607351364013765</v>
       </c>
       <c r="C385" t="n">
         <v>1</v>
@@ -4676,10 +4676,10 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>1.210376115832092</v>
+        <v>1.926969021482307</v>
       </c>
       <c r="B386" t="n">
-        <v>1.000425513593471</v>
+        <v>1.459255298530961</v>
       </c>
       <c r="C386" t="n">
         <v>2</v>
@@ -4687,10 +4687,10 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>-1.214658994330478</v>
+        <v>-9.582073371322199</v>
       </c>
       <c r="B387" t="n">
-        <v>-1.431664278560872</v>
+        <v>-6.079460047487451</v>
       </c>
       <c r="C387" t="n">
         <v>0</v>
@@ -4698,10 +4698,10 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>-1.086078646055629</v>
+        <v>-8.971840276974303</v>
       </c>
       <c r="B388" t="n">
-        <v>-1.419616990527479</v>
+        <v>-6.042117234130715</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -4709,10 +4709,10 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>1.344961326269638</v>
+        <v>2.565700760201918</v>
       </c>
       <c r="B389" t="n">
-        <v>0.7411221634959617</v>
+        <v>0.6554962634163473</v>
       </c>
       <c r="C389" t="n">
         <v>2</v>
@@ -4720,10 +4720,10 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>-0.6954915045749839</v>
+        <v>-7.118141767395312</v>
       </c>
       <c r="B390" t="n">
-        <v>0.1179254290124555</v>
+        <v>-1.276218100500207</v>
       </c>
       <c r="C390" t="n">
         <v>1</v>
@@ -4731,10 +4731,10 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>-0.4058129091169523</v>
+        <v>-5.743347966908418</v>
       </c>
       <c r="B391" t="n">
-        <v>0.3615673243451673</v>
+        <v>-0.5210046617518217</v>
       </c>
       <c r="C391" t="n">
         <v>1</v>
@@ -4742,10 +4742,10 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>-0.04903185461289086</v>
+        <v>-4.050090717135459</v>
       </c>
       <c r="B392" t="n">
-        <v>1.264644396537612</v>
+        <v>2.278250943339963</v>
       </c>
       <c r="C392" t="n">
         <v>1</v>
@@ -4753,10 +4753,10 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>-1.121666720275082</v>
+        <v>-9.140738720198286</v>
       </c>
       <c r="B393" t="n">
-        <v>-1.581006834928184</v>
+        <v>-6.542375119592004</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -4764,10 +4764,10 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>-1.004862790021258</v>
+        <v>-8.586395659636443</v>
       </c>
       <c r="B394" t="n">
-        <v>-1.429461173002385</v>
+        <v>-6.072631111427507</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -4775,10 +4775,10 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>-0.04475038191412987</v>
+        <v>-4.029771155333167</v>
       </c>
       <c r="B395" t="n">
-        <v>1.128628365114109</v>
+        <v>1.856643917684633</v>
       </c>
       <c r="C395" t="n">
         <v>1</v>
@@ -4786,10 +4786,10 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>1.347193631954076</v>
+        <v>2.576295122587942</v>
       </c>
       <c r="B396" t="n">
-        <v>0.8085526952128004</v>
+        <v>0.864509757031493</v>
       </c>
       <c r="C396" t="n">
         <v>2</v>
@@ -4797,10 +4797,10 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>-0.1901860073897558</v>
+        <v>-4.719998184215568</v>
       </c>
       <c r="B397" t="n">
-        <v>0.8070988104062056</v>
+        <v>0.8600031702524289</v>
       </c>
       <c r="C397" t="n">
         <v>1</v>
@@ -4808,10 +4808,10 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>-1.053492706437918</v>
+        <v>-8.81718974886526</v>
       </c>
       <c r="B398" t="n">
-        <v>-0.9476786173762874</v>
+        <v>-4.579256336672506</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -4819,10 +4819,10 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>1.187152790025114</v>
+        <v>1.816752785810361</v>
       </c>
       <c r="B399" t="n">
-        <v>0.9016083119879977</v>
+        <v>1.152952975073613</v>
       </c>
       <c r="C399" t="n">
         <v>2</v>
@@ -4830,10 +4830,10 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>1.069855962152281</v>
+        <v>1.260070468563651</v>
       </c>
       <c r="B400" t="n">
-        <v>0.8773055005589906</v>
+        <v>1.077621884066089</v>
       </c>
       <c r="C400" t="n">
         <v>2</v>
@@ -4841,10 +4841,10 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>-1.042281757491767</v>
+        <v>-8.763983390679309</v>
       </c>
       <c r="B401" t="n">
-        <v>-0.9077213799785659</v>
+        <v>-4.455401436361495</v>
       </c>
       <c r="C401" t="n">
         <v>0</v>
@@ -4852,10 +4852,10 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>1.187592636754655</v>
+        <v>1.818840266785549</v>
       </c>
       <c r="B402" t="n">
-        <v>0.5791392966062151</v>
+        <v>0.1534001942855677</v>
       </c>
       <c r="C402" t="n">
         <v>2</v>
@@ -4863,10 +4863,10 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>-0.04142877813829308</v>
+        <v>-4.014007062471995</v>
       </c>
       <c r="B403" t="n">
-        <v>0.8495190656998748</v>
+        <v>0.9914926533282695</v>
       </c>
       <c r="C403" t="n">
         <v>1</v>
@@ -4874,10 +4874,10 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>1.196990791309163</v>
+        <v>1.863443233038978</v>
       </c>
       <c r="B404" t="n">
-        <v>0.540919072563695</v>
+        <v>0.03492949042953014</v>
       </c>
       <c r="C404" t="n">
         <v>2</v>
@@ -4885,10 +4885,10 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>-0.2914269984434763</v>
+        <v>-5.200480653538951</v>
       </c>
       <c r="B405" t="n">
-        <v>0.336593187522446</v>
+        <v>-0.5984166508676678</v>
       </c>
       <c r="C405" t="n">
         <v>1</v>
@@ -4896,10 +4896,10 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>1.30180252721982</v>
+        <v>2.360872200893517</v>
       </c>
       <c r="B406" t="n">
-        <v>0.678272022203334</v>
+        <v>0.4606805431289567</v>
       </c>
       <c r="C406" t="n">
         <v>2</v>
@@ -4907,10 +4907,10 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>-0.9801970433219931</v>
+        <v>-8.469333798048391</v>
       </c>
       <c r="B407" t="n">
-        <v>0.4592079276606709</v>
+        <v>-0.2183494238639722</v>
       </c>
       <c r="C407" t="n">
         <v>1</v>
@@ -4918,10 +4918,10 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>-1.162368554234316</v>
+        <v>-9.333906699720984</v>
       </c>
       <c r="B408" t="n">
-        <v>-1.127980034104313</v>
+        <v>-5.138134163297655</v>
       </c>
       <c r="C408" t="n">
         <v>1</v>
@@ -4929,10 +4929,10 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>-0.4381775590929237</v>
+        <v>-5.896948270277536</v>
       </c>
       <c r="B409" t="n">
-        <v>-0.3821795491110745</v>
+        <v>-2.826386636778</v>
       </c>
       <c r="C409" t="n">
         <v>1</v>
@@ -4940,10 +4940,10 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>0.003388910446810531</v>
+        <v>-3.801305532621201</v>
       </c>
       <c r="B410" t="n">
-        <v>1.168893056019555</v>
+        <v>1.981451827413451</v>
       </c>
       <c r="C410" t="n">
         <v>1</v>
@@ -4951,10 +4951,10 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>1.364105627543993</v>
+        <v>2.656558238522056</v>
       </c>
       <c r="B411" t="n">
-        <v>0.6058719621846339</v>
+        <v>0.2362630708479863</v>
       </c>
       <c r="C411" t="n">
         <v>2</v>
@@ -4962,10 +4962,10 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>-0.7388022158857892</v>
+        <v>-7.323691291379384</v>
       </c>
       <c r="B412" t="n">
-        <v>-1.048123123395917</v>
+        <v>-4.890602793286129</v>
       </c>
       <c r="C412" t="n">
         <v>0</v>
@@ -4973,10 +4973,10 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>-0.849825119452487</v>
+        <v>-7.850598014653881</v>
       </c>
       <c r="B413" t="n">
-        <v>-1.006041906851152</v>
+        <v>-4.760164223966643</v>
       </c>
       <c r="C413" t="n">
         <v>0</v>
@@ -4984,10 +4984,10 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>-0.8929559904801709</v>
+        <v>-8.055294029575876</v>
       </c>
       <c r="B414" t="n">
-        <v>-0.9758806309862891</v>
+        <v>-4.666673731160237</v>
       </c>
       <c r="C414" t="n">
         <v>0</v>
@@ -4995,10 +4995,10 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>0.9338196615751505</v>
+        <v>0.6144519603031551</v>
       </c>
       <c r="B415" t="n">
-        <v>0.8003211588931798</v>
+        <v>0.8389945768871521</v>
       </c>
       <c r="C415" t="n">
         <v>2</v>
@@ -5006,10 +5006,10 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>0.03869235363486136</v>
+        <v>-3.633757927821366</v>
       </c>
       <c r="B416" t="n">
-        <v>0.7312771054593534</v>
+        <v>0.6249796721529642</v>
       </c>
       <c r="C416" t="n">
         <v>1</v>
@@ -5017,10 +5017,10 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>1.237148334821286</v>
+        <v>2.054028049207238</v>
       </c>
       <c r="B417" t="n">
-        <v>0.5685005457026954</v>
+        <v>0.1204234041368009</v>
       </c>
       <c r="C417" t="n">
         <v>2</v>
@@ -5028,10 +5028,10 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>1.304153521243902</v>
+        <v>2.372029849611673</v>
       </c>
       <c r="B418" t="n">
-        <v>0.4916778127500272</v>
+        <v>-0.1177029667322402</v>
       </c>
       <c r="C418" t="n">
         <v>2</v>
@@ -5039,10 +5039,10 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>1.1703778249997</v>
+        <v>1.73714000708966</v>
       </c>
       <c r="B419" t="n">
-        <v>0.5832114438005931</v>
+        <v>0.1660225730499265</v>
       </c>
       <c r="C419" t="n">
         <v>2</v>
@@ -5050,10 +5050,10 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>-1.00243289748803</v>
+        <v>-8.574863564262778</v>
       </c>
       <c r="B420" t="n">
-        <v>-1.102093572588246</v>
+        <v>-5.057894253852359</v>
       </c>
       <c r="C420" t="n">
         <v>0</v>
@@ -5061,10 +5061,10 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>-1.470214290614677</v>
+        <v>-10.79492044570678</v>
       </c>
       <c r="B421" t="n">
-        <v>-1.180418485407056</v>
+        <v>-5.300676911033646</v>
       </c>
       <c r="C421" t="n">
         <v>0</v>
@@ -5072,10 +5072,10 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>-0.7500541702163918</v>
+        <v>-7.377092258173684</v>
       </c>
       <c r="B422" t="n">
-        <v>-1.564188094864657</v>
+        <v>-6.490242301870133</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -5083,10 +5083,10 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>-0.8959400588175807</v>
+        <v>-8.069456203498369</v>
       </c>
       <c r="B423" t="n">
-        <v>-0.362513811263601</v>
+        <v>-2.765429019102955</v>
       </c>
       <c r="C423" t="n">
         <v>1</v>
@@ -5094,10 +5094,10 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>-0.1561397743629228</v>
+        <v>-4.558417208509673</v>
       </c>
       <c r="B424" t="n">
-        <v>1.284969225474451</v>
+        <v>2.34125153661807</v>
       </c>
       <c r="C424" t="n">
         <v>1</v>
@@ -5105,10 +5105,10 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>-1.07469124798819</v>
+        <v>-8.917796503936676</v>
       </c>
       <c r="B425" t="n">
-        <v>-0.8373709420782203</v>
+        <v>-4.237337149627794</v>
       </c>
       <c r="C425" t="n">
         <v>0</v>
@@ -5116,10 +5116,10 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>-0.2653787339773826</v>
+        <v>-5.076857461964146</v>
       </c>
       <c r="B426" t="n">
-        <v>0.9543198943902476</v>
+        <v>1.316342343529766</v>
       </c>
       <c r="C426" t="n">
         <v>1</v>
@@ -5127,10 +5127,10 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>1.309789561844613</v>
+        <v>2.398778093350212</v>
       </c>
       <c r="B427" t="n">
-        <v>0.5387453154411226</v>
+        <v>0.02819152531355579</v>
       </c>
       <c r="C427" t="n">
         <v>2</v>
@@ -5138,10 +5138,10 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>-1.001778452990959</v>
+        <v>-8.571757617701858</v>
       </c>
       <c r="B428" t="n">
-        <v>-0.7942074753969218</v>
+        <v>-4.103543944414995</v>
       </c>
       <c r="C428" t="n">
         <v>0</v>
@@ -5149,10 +5149,10 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>1.170925291143777</v>
+        <v>1.739738242073723</v>
       </c>
       <c r="B429" t="n">
-        <v>1.006168288005017</v>
+        <v>1.477056097549445</v>
       </c>
       <c r="C429" t="n">
         <v>2</v>
@@ -5160,10 +5160,10 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>-0.7995604390312673</v>
+        <v>-7.612045452918061</v>
       </c>
       <c r="B430" t="n">
-        <v>-0.646777253946647</v>
+        <v>-3.646556510604185</v>
       </c>
       <c r="C430" t="n">
         <v>1</v>
@@ -5171,10 +5171,10 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>-1.13293019647485</v>
+        <v>-9.194194368955792</v>
       </c>
       <c r="B431" t="n">
-        <v>-1.371274915322581</v>
+        <v>-5.892271967158594</v>
       </c>
       <c r="C431" t="n">
         <v>0</v>
@@ -5182,10 +5182,10 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>-1.211647250615799</v>
+        <v>-9.567779852047678</v>
       </c>
       <c r="B432" t="n">
-        <v>-1.405664153918572</v>
+        <v>-5.998867818009907</v>
       </c>
       <c r="C432" t="n">
         <v>0</v>
@@ -5193,10 +5193,10 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>0.006012367664368818</v>
+        <v>-3.788854793163427</v>
       </c>
       <c r="B433" t="n">
-        <v>-0.2329141839777567</v>
+        <v>-2.363710833281936</v>
       </c>
       <c r="C433" t="n">
         <v>1</v>
@@ -5204,10 +5204,10 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>-1.362842696773739</v>
+        <v>-10.28534257604225</v>
       </c>
       <c r="B434" t="n">
-        <v>-1.58097712560499</v>
+        <v>-6.54228303001069</v>
       </c>
       <c r="C434" t="n">
         <v>0</v>
@@ -5215,10 +5215,10 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>0.8796126083080379</v>
+        <v>0.3571891803022549</v>
       </c>
       <c r="B435" t="n">
-        <v>1.044724576321577</v>
+        <v>1.596568495222926</v>
       </c>
       <c r="C435" t="n">
         <v>1</v>
@@ -5226,10 +5226,10 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>-1.203472875283976</v>
+        <v>-9.528984854055942</v>
       </c>
       <c r="B436" t="n">
-        <v>1.563978135580613</v>
+        <v>3.206091625614139</v>
       </c>
       <c r="C436" t="n">
         <v>1</v>
@@ -5237,10 +5237,10 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>1.190681135080828</v>
+        <v>1.833498057931362</v>
       </c>
       <c r="B437" t="n">
-        <v>0.7396675626159394</v>
+        <v>0.6509874570343086</v>
       </c>
       <c r="C437" t="n">
         <v>2</v>
@@ -5248,10 +5248,10 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>0.2355653798003518</v>
+        <v>-2.699412691068713</v>
       </c>
       <c r="B438" t="n">
-        <v>0.2379909300067133</v>
+        <v>-0.9040527150803584</v>
       </c>
       <c r="C438" t="n">
         <v>1</v>
@@ -5259,10 +5259,10 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>0.04814569000820169</v>
+        <v>-3.588893072620601</v>
       </c>
       <c r="B439" t="n">
-        <v>0.2912650681121479</v>
+        <v>-0.7389196004326503</v>
       </c>
       <c r="C439" t="n">
         <v>1</v>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>-0.8110854033800605</v>
+        <v>-7.666742105642784</v>
       </c>
       <c r="B440" t="n">
-        <v>-1.180231588844218</v>
+        <v>-5.30009759032315</v>
       </c>
       <c r="C440" t="n">
         <v>0</v>
@@ -5281,10 +5281,10 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>-0.7316936256088913</v>
+        <v>-7.289954432681115</v>
       </c>
       <c r="B441" t="n">
-        <v>0.2699631755872426</v>
+        <v>-0.8049487843035668</v>
       </c>
       <c r="C441" t="n">
         <v>1</v>
@@ -5292,10 +5292,10 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>-1.209323604599465</v>
+        <v>-9.556751995009327</v>
       </c>
       <c r="B442" t="n">
-        <v>-1.138102880388756</v>
+        <v>-5.169511810979945</v>
       </c>
       <c r="C442" t="n">
         <v>0</v>
@@ -5303,10 +5303,10 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>0.4974646067923382</v>
+        <v>-1.456457777359676</v>
       </c>
       <c r="B443" t="n">
-        <v>-0.4365122990499253</v>
+        <v>-2.994801115995304</v>
       </c>
       <c r="C443" t="n">
         <v>1</v>
@@ -5314,10 +5314,10 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>1.295206289670014</v>
+        <v>2.329566931425214</v>
       </c>
       <c r="B444" t="n">
-        <v>1.20964456565034</v>
+        <v>2.107768722463152</v>
       </c>
       <c r="C444" t="n">
         <v>1</v>
@@ -5325,10 +5325,10 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>0.5301787925519129</v>
+        <v>-1.301198602275903</v>
       </c>
       <c r="B445" t="n">
-        <v>0.804350675457643</v>
+        <v>0.8514848140731093</v>
       </c>
       <c r="C445" t="n">
         <v>1</v>
@@ -5336,10 +5336,10 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>-1.145882793964035</v>
+        <v>-9.255666465988638</v>
       </c>
       <c r="B446" t="n">
-        <v>0.8915770879163316</v>
+        <v>1.121859327506665</v>
       </c>
       <c r="C446" t="n">
         <v>1</v>
@@ -5347,10 +5347,10 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>-0.9120032946575605</v>
+        <v>-8.145691166643109</v>
       </c>
       <c r="B447" t="n">
-        <v>-1.729028213436025</v>
+        <v>-7.001194954819966</v>
       </c>
       <c r="C447" t="n">
         <v>0</v>
@@ -5358,10 +5358,10 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>1.03012574180159</v>
+        <v>1.071513697416156</v>
       </c>
       <c r="B448" t="n">
-        <v>0.8749976689051954</v>
+        <v>1.070468329965982</v>
       </c>
       <c r="C448" t="n">
         <v>2</v>
@@ -5369,10 +5369,10 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>0.6961413050682759</v>
+        <v>-0.513552442365615</v>
       </c>
       <c r="B449" t="n">
-        <v>1.645350400588075</v>
+        <v>3.458320118546816</v>
       </c>
       <c r="C449" t="n">
         <v>1</v>
@@ -5380,10 +5380,10 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>1.426232837054568</v>
+        <v>2.951409510987105</v>
       </c>
       <c r="B450" t="n">
-        <v>0.58031923312409</v>
+        <v>0.1570576273142845</v>
       </c>
       <c r="C450" t="n">
         <v>2</v>
@@ -5391,10 +5391,10 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>-1.175182880591563</v>
+        <v>-9.394722571896502</v>
       </c>
       <c r="B451" t="n">
-        <v>-0.8879658394361251</v>
+        <v>-4.394165458505486</v>
       </c>
       <c r="C451" t="n">
         <v>0</v>
@@ -5402,10 +5402,10 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>-1.377130959448455</v>
+        <v>-10.35315364407739</v>
       </c>
       <c r="B452" t="n">
-        <v>-1.60561805169272</v>
+        <v>-6.618662170384914</v>
       </c>
       <c r="C452" t="n">
         <v>0</v>
@@ -5413,10 +5413,10 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>1.286689755422288</v>
+        <v>2.2891480718029</v>
       </c>
       <c r="B453" t="n">
-        <v>0.5460314184624223</v>
+        <v>0.05077615884005426</v>
       </c>
       <c r="C453" t="n">
         <v>2</v>
@@ -5424,10 +5424,10 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>-1.248816857582513</v>
+        <v>-9.744184136056218</v>
       </c>
       <c r="B454" t="n">
-        <v>-1.432893456441256</v>
+        <v>-6.083270113291655</v>
       </c>
       <c r="C454" t="n">
         <v>0</v>
@@ -5435,10 +5435,10 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>-0.9283804105412254</v>
+        <v>-8.223415781922736</v>
       </c>
       <c r="B455" t="n">
-        <v>-1.331742671917796</v>
+        <v>-5.769734414894044</v>
       </c>
       <c r="C455" t="n">
         <v>0</v>
@@ -5446,10 +5446,10 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>-1.267026124500454</v>
+        <v>-9.830604008503517</v>
       </c>
       <c r="B456" t="n">
-        <v>-1.52339964653611</v>
+        <v>-6.363810908445996</v>
       </c>
       <c r="C456" t="n">
         <v>0</v>
@@ -5457,10 +5457,10 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>1.13168529771821</v>
+        <v>1.553508052689811</v>
       </c>
       <c r="B457" t="n">
-        <v>0.6736769919891203</v>
+        <v>0.4464373910450751</v>
       </c>
       <c r="C457" t="n">
         <v>2</v>
@@ -5468,10 +5468,10 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>-0.1622184013162834</v>
+        <v>-4.587265935277832</v>
       </c>
       <c r="B458" t="n">
-        <v>-0.6126534276882599</v>
+        <v>-3.540783354732708</v>
       </c>
       <c r="C458" t="n">
         <v>1</v>
@@ -5479,10 +5479,10 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>1.365127666528292</v>
+        <v>2.661408762107508</v>
       </c>
       <c r="B459" t="n">
-        <v>0.8146677087134746</v>
+        <v>0.8834643804452147</v>
       </c>
       <c r="C459" t="n">
         <v>2</v>
@@ -5490,10 +5490,10 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>-0.9627314799537084</v>
+        <v>-8.386443489212274</v>
       </c>
       <c r="B460" t="n">
-        <v>-0.8663381806439189</v>
+        <v>-4.327126501407266</v>
       </c>
       <c r="C460" t="n">
         <v>0</v>
@@ -5501,10 +5501,10 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>0.533078732235535</v>
+        <v>-1.287435696899599</v>
       </c>
       <c r="B461" t="n">
-        <v>2.517118132103518</v>
+        <v>6.160526590092278</v>
       </c>
       <c r="C461" t="n">
         <v>1</v>
@@ -5512,10 +5512,10 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>-0.08930214163310062</v>
+        <v>-4.241210605892421</v>
       </c>
       <c r="B462" t="n">
-        <v>-0.2543616787079198</v>
+        <v>-2.430191338309963</v>
       </c>
       <c r="C462" t="n">
         <v>1</v>
@@ -5523,10 +5523,10 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>1.414274777466421</v>
+        <v>2.894657419374528</v>
       </c>
       <c r="B463" t="n">
-        <v>0.8261540503279446</v>
+        <v>0.9190684358867336</v>
       </c>
       <c r="C463" t="n">
         <v>2</v>
@@ -5534,10 +5534,10 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>1.289524103481436</v>
+        <v>2.302599684042241</v>
       </c>
       <c r="B464" t="n">
-        <v>0.7535677756915408</v>
+        <v>0.6940737567112376</v>
       </c>
       <c r="C464" t="n">
         <v>2</v>
@@ -5545,10 +5545,10 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>-0.8949498446071993</v>
+        <v>-8.064756718003302</v>
       </c>
       <c r="B465" t="n">
-        <v>-0.957444020946738</v>
+        <v>-4.609526024080473</v>
       </c>
       <c r="C465" t="n">
         <v>0</v>
@@ -5556,10 +5556,10 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>-1.005395944622442</v>
+        <v>-8.588925973066226</v>
       </c>
       <c r="B466" t="n">
-        <v>-0.9209351805790351</v>
+        <v>-4.496360072710914</v>
       </c>
       <c r="C466" t="n">
         <v>0</v>
@@ -5567,10 +5567,10 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>-1.444771918667598</v>
+        <v>-10.67417277649353</v>
       </c>
       <c r="B467" t="n">
-        <v>-1.097534396800721</v>
+        <v>-5.043762239242748</v>
       </c>
       <c r="C467" t="n">
         <v>0</v>
@@ -5578,10 +5578,10 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>1.478449848623344</v>
+        <v>3.199227696073224</v>
       </c>
       <c r="B468" t="n">
-        <v>0.9063263313267353</v>
+        <v>1.16757735485864</v>
       </c>
       <c r="C468" t="n">
         <v>2</v>
@@ -5589,10 +5589,10 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>-0.8674598556583784</v>
+        <v>-7.934291205622124</v>
       </c>
       <c r="B469" t="n">
-        <v>-1.145486567021833</v>
+        <v>-5.192398923088441</v>
       </c>
       <c r="C469" t="n">
         <v>0</v>
@@ -5600,10 +5600,10 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>1.146705709150271</v>
+        <v>1.624793846122039</v>
       </c>
       <c r="B470" t="n">
-        <v>0.5359400365622812</v>
+        <v>0.01949604087790519</v>
       </c>
       <c r="C470" t="n">
         <v>2</v>
@@ -5611,10 +5611,10 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>1.366496800687509</v>
+        <v>2.667906574454156</v>
       </c>
       <c r="B471" t="n">
-        <v>0.5447277643267742</v>
+        <v>0.04673524000966617</v>
       </c>
       <c r="C471" t="n">
         <v>2</v>
@@ -5622,10 +5622,10 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>-1.090619612574732</v>
+        <v>-8.993391377803173</v>
       </c>
       <c r="B472" t="n">
-        <v>1.394458073121667</v>
+        <v>2.680632614832619</v>
       </c>
       <c r="C472" t="n">
         <v>1</v>
@@ -5633,10 +5633,10 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>-0.8680681601566165</v>
+        <v>-7.937178175063769</v>
       </c>
       <c r="B473" t="n">
-        <v>-0.9267723645329833</v>
+        <v>-4.514453511692121</v>
       </c>
       <c r="C473" t="n">
         <v>0</v>
@@ -5644,10 +5644,10 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>1.31905794816124</v>
+        <v>2.442765188870575</v>
       </c>
       <c r="B474" t="n">
-        <v>0.5629419675709878</v>
+        <v>0.1031935557986656</v>
       </c>
       <c r="C474" t="n">
         <v>2</v>
@@ -5655,10 +5655,10 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>-0.8470279088089818</v>
+        <v>-7.837322653920839</v>
       </c>
       <c r="B475" t="n">
-        <v>-1.093052540091814</v>
+        <v>-5.029869889519854</v>
       </c>
       <c r="C475" t="n">
         <v>0</v>
@@ -5666,10 +5666,10 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>-0.06233700260341503</v>
+        <v>-4.113235993516721</v>
       </c>
       <c r="B476" t="n">
-        <v>1.380544254485308</v>
+        <v>2.63750414218576</v>
       </c>
       <c r="C476" t="n">
         <v>1</v>
@@ -5677,10 +5677,10 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>1.177534847361409</v>
+        <v>1.771106720982575</v>
       </c>
       <c r="B477" t="n">
-        <v>0.7278278802036205</v>
+        <v>0.6142881559716329</v>
       </c>
       <c r="C477" t="n">
         <v>2</v>
@@ -5688,10 +5688,10 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>1.043340442832668</v>
+        <v>1.134229719026547</v>
       </c>
       <c r="B478" t="n">
-        <v>0.609436534854212</v>
+        <v>0.2473121278247614</v>
       </c>
       <c r="C478" t="n">
         <v>2</v>
@@ -5699,10 +5699,10 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>1.186846763989016</v>
+        <v>1.815300408231172</v>
       </c>
       <c r="B479" t="n">
-        <v>0.5057574456928116</v>
+        <v>-0.07406052175571087</v>
       </c>
       <c r="C479" t="n">
         <v>2</v>
@@ -5710,10 +5710,10 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>1.175077903324747</v>
+        <v>1.759446241117275</v>
       </c>
       <c r="B480" t="n">
-        <v>0.758573936561152</v>
+        <v>0.7095912848445002</v>
       </c>
       <c r="C480" t="n">
         <v>2</v>
@@ -5721,10 +5721,10 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>-1.090524338007272</v>
+        <v>-8.992939211551535</v>
       </c>
       <c r="B481" t="n">
-        <v>-1.018657770727742</v>
+        <v>-4.799269444060296</v>
       </c>
       <c r="C481" t="n">
         <v>0</v>
@@ -5732,10 +5732,10 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>-0.3355880861318004</v>
+        <v>-5.410066002710743</v>
       </c>
       <c r="B482" t="n">
-        <v>-1.352320322923506</v>
+        <v>-5.833518677268809</v>
       </c>
       <c r="C482" t="n">
         <v>1</v>
@@ -5743,10 +5743,10 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>-0.4320585206504258</v>
+        <v>-5.867907753485519</v>
       </c>
       <c r="B483" t="n">
-        <v>1.316882818756714</v>
+        <v>2.440173663670985</v>
       </c>
       <c r="C483" t="n">
         <v>1</v>
@@ -5754,10 +5754,10 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>-0.9124472633629078</v>
+        <v>-8.147798210219307</v>
       </c>
       <c r="B484" t="n">
-        <v>-1.044322249670655</v>
+        <v>-4.878821277170505</v>
       </c>
       <c r="C484" t="n">
         <v>0</v>
@@ -5765,10 +5765,10 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>-0.05849128844487837</v>
+        <v>-4.094984510436857</v>
       </c>
       <c r="B485" t="n">
-        <v>-0.4100611966208009</v>
+        <v>-2.912810996862034</v>
       </c>
       <c r="C485" t="n">
         <v>1</v>
@@ -5776,10 +5776,10 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>-1.118945391987131</v>
+        <v>-9.127823491672514</v>
       </c>
       <c r="B486" t="n">
-        <v>-1.002304927337793</v>
+        <v>-4.748580759862645</v>
       </c>
       <c r="C486" t="n">
         <v>0</v>
@@ -5787,10 +5787,10 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>0.4312883067902529</v>
+        <v>-1.770525742368187</v>
       </c>
       <c r="B487" t="n">
-        <v>2.681977090853736</v>
+        <v>6.671537641685893</v>
       </c>
       <c r="C487" t="n">
         <v>1</v>
@@ -5798,10 +5798,10 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>1.147041596758332</v>
+        <v>1.626387944576199</v>
       </c>
       <c r="B488" t="n">
-        <v>0.6956802164271375</v>
+        <v>0.5146404838206233</v>
       </c>
       <c r="C488" t="n">
         <v>2</v>
@@ -5809,10 +5809,10 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>-1.053103431439624</v>
+        <v>-8.81534227769297</v>
       </c>
       <c r="B489" t="n">
-        <v>1.828129162788836</v>
+        <v>4.0248769389299</v>
       </c>
       <c r="C489" t="n">
         <v>1</v>
@@ -5820,10 +5820,10 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>-0.9787281072114949</v>
+        <v>-8.462362332811786</v>
       </c>
       <c r="B490" t="n">
-        <v>-0.2717033309759983</v>
+        <v>-2.48394501981482</v>
       </c>
       <c r="C490" t="n">
         <v>1</v>
@@ -5831,10 +5831,10 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>0.4756888721548595</v>
+        <v>-1.559803849351352</v>
       </c>
       <c r="B491" t="n">
-        <v>0.3287380386741255</v>
+        <v>-0.6227651479334929</v>
       </c>
       <c r="C491" t="n">
         <v>1</v>
@@ -5842,10 +5842,10 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>-1.366196795977908</v>
+        <v>-10.30126088987147</v>
       </c>
       <c r="B492" t="n">
-        <v>-1.42576760638486</v>
+        <v>-6.061182213680846</v>
       </c>
       <c r="C492" t="n">
         <v>0</v>
@@ -5853,10 +5853,10 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>1.038943249903072</v>
+        <v>1.113360957323273</v>
       </c>
       <c r="B493" t="n">
-        <v>0.4933088012495701</v>
+        <v>-0.11264741406706</v>
       </c>
       <c r="C493" t="n">
         <v>2</v>
@@ -5864,10 +5864,10 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>1.128104398913104</v>
+        <v>1.536513364250209</v>
       </c>
       <c r="B494" t="n">
-        <v>0.7345114742618388</v>
+        <v>0.6350052007352709</v>
       </c>
       <c r="C494" t="n">
         <v>2</v>
@@ -5875,10 +5875,10 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>-1.137734279290822</v>
+        <v>-9.216994200824562</v>
       </c>
       <c r="B495" t="n">
-        <v>-0.9534422447333677</v>
+        <v>-4.597121773280035</v>
       </c>
       <c r="C495" t="n">
         <v>0</v>
@@ -5886,10 +5886,10 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>-0.1805826888274635</v>
+        <v>-4.674421524322335</v>
       </c>
       <c r="B496" t="n">
-        <v>0.3293156231847113</v>
+        <v>-0.6209748171539214</v>
       </c>
       <c r="C496" t="n">
         <v>1</v>
@@ -5897,10 +5897,10 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>-0.9687508866184031</v>
+        <v>-8.415011160745433</v>
       </c>
       <c r="B497" t="n">
-        <v>-1.522088227935635</v>
+        <v>-6.359745922210558</v>
       </c>
       <c r="C497" t="n">
         <v>0</v>
@@ -5908,10 +5908,10 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>1.347215366396231</v>
+        <v>2.576398272688779</v>
       </c>
       <c r="B498" t="n">
-        <v>0.6453818907292531</v>
+        <v>0.3587314540467714</v>
       </c>
       <c r="C498" t="n">
         <v>2</v>
@@ -5919,10 +5919,10 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>-0.1183495092189881</v>
+        <v>-4.379067325386657</v>
       </c>
       <c r="B499" t="n">
-        <v>-0.07978924045212676</v>
+        <v>-1.88907154761957</v>
       </c>
       <c r="C499" t="n">
         <v>1</v>
@@ -5930,10 +5930,10 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>-1.232124370610704</v>
+        <v>-9.664962792251835</v>
       </c>
       <c r="B500" t="n">
-        <v>-0.605085965782025</v>
+        <v>-3.517326596932492</v>
       </c>
       <c r="C500" t="n">
         <v>0</v>
@@ -5941,10 +5941,10 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>1.21364099170386</v>
+        <v>1.942463887786701</v>
       </c>
       <c r="B501" t="n">
-        <v>0.705831425657256</v>
+        <v>0.5461060477363173</v>
       </c>
       <c r="C501" t="n">
         <v>2</v>
